--- a/TestCase_Othoba.xlsx
+++ b/TestCase_Othoba.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Tests\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQA\Tests\Test Case _Othoba.com\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB93EF1-45E5-4649-89A1-90072D727F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5753CCE3-25DA-419E-BEFF-98DFD194F08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mind Maps" sheetId="2" r:id="rId1"/>
-    <sheet name="Report" sheetId="3" r:id="rId2"/>
-    <sheet name="TestCase" sheetId="4" r:id="rId3"/>
-    <sheet name="Bug Report" sheetId="5" r:id="rId4"/>
-    <sheet name="Test Metrics" sheetId="6" r:id="rId5"/>
+    <sheet name="Test Plan" sheetId="7" r:id="rId1"/>
+    <sheet name="Mind Maps" sheetId="2" r:id="rId2"/>
+    <sheet name="Report" sheetId="3" r:id="rId3"/>
+    <sheet name="TestCase" sheetId="4" r:id="rId4"/>
+    <sheet name="Bug Report" sheetId="5" r:id="rId5"/>
+    <sheet name="Test Metrics" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Remember_Me_checkbox_error">TestCase!$J$18</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="350">
   <si>
     <t>Test Case Report</t>
   </si>
@@ -1208,12 +1209,168 @@
   <si>
     <t>(0/48)*100 = 0</t>
   </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Test Plan Identifier</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refrence </t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Test Item</t>
+  </si>
+  <si>
+    <t>I created this test plan without client's BRS/SRS requirements. Therefore not need for any refrence documents.</t>
+  </si>
+  <si>
+    <t>Features to be Tested</t>
+  </si>
+  <si>
+    <t>Features Not to be Tested</t>
+  </si>
+  <si>
+    <t>Testing Approach</t>
+  </si>
+  <si>
+    <t>Testing approach is Black-Box testing and type of testing is Fucntional testing.</t>
+  </si>
+  <si>
+    <t>Entry Criteria</t>
+  </si>
+  <si>
+    <t>Exit Criteria</t>
+  </si>
+  <si>
+    <t>After all functionality testing , I will stop further testing.</t>
+  </si>
+  <si>
+    <t>Suspension Criteria</t>
+  </si>
+  <si>
+    <t>Roles and Responsibilities</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Test Deliverables</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Approvals</t>
+  </si>
+  <si>
+    <t>Web application project 01 - Othoba.com.</t>
+  </si>
+  <si>
+    <t>Othoba is a Ecommerce platform which is very fast growing multivendor marketpalce with thousands of products.</t>
+  </si>
+  <si>
+    <t>I will test the Othoba web application on Chrome browser on Windows 11.</t>
+  </si>
+  <si>
+    <t>I will test only sign up and sign in features.</t>
+  </si>
+  <si>
+    <t>Nothing will be tested other than sign-up and sign-in features.</t>
+  </si>
+  <si>
+    <t>This is a live application. Therefore, when I see these sign-up and sign-in features I will start testing.</t>
+  </si>
+  <si>
+    <t>When I am not able to sign up with any valid BD phone number, I will stop all types of testing procedures.</t>
+  </si>
+  <si>
+    <t>My role in this project is SQA Engineer and my responsibility is to test sign-up and sign-in features.</t>
+  </si>
+  <si>
+    <t>The testing procedure will be completed within 2 days.</t>
+  </si>
+  <si>
+    <t>No need for any prior training.</t>
+  </si>
+  <si>
+    <t>Need to install Chrome browser in Windows 11.</t>
+  </si>
+  <si>
+    <t>After test completion I will provide test plan,mind map,test cases,test report, bug report also test Metrics.</t>
+  </si>
+  <si>
+    <t>No risk at this moment.</t>
+  </si>
+  <si>
+    <t>After completing the test, I will try to review my testing work by an expert QA engineer.</t>
+  </si>
+  <si>
+    <t>Test Plan Document</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1528,6 +1685,18 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2136,7 +2305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="350">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2876,20 +3045,65 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2901,23 +3115,68 @@
     <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2930,12 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2959,47 +3212,11 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3008,6 +3225,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3016,177 +3236,16 @@
     <xf numFmtId="0" fontId="38" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC4125"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93C47D"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -3442,14 +3501,6 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
-              </a:solidFill>
-              <a:ln w="0">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-7A1D-4A3E-A1C3-D246815E1D73}"/>
@@ -4203,10 +4254,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC459A22-1F79-4386-BAFA-415F9501359A}">
+  <dimension ref="C1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="88.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" ht="18">
+      <c r="D1" s="351" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" s="349" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="349" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="349" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="349" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="349" t="s">
+        <v>301</v>
+      </c>
+      <c r="E4" s="349" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="349" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="349" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" s="349" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="349" t="s">
+        <v>304</v>
+      </c>
+      <c r="D6" s="349" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="349" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="349" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="349" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="349" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="349" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="349" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" s="349" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="349" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="349" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="349" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="349" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="349" t="s">
+        <v>324</v>
+      </c>
+      <c r="E10" s="349" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="349" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="349" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="349" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="349" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12" s="349" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="349" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="349" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="349" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="349" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="349" t="s">
+        <v>312</v>
+      </c>
+      <c r="D14" s="349" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="349" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="349" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="349" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="349" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="349" t="s">
+        <v>314</v>
+      </c>
+      <c r="D16" s="349" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16" s="349" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="349" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="349" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" s="349" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="350" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="350" t="s">
+        <v>333</v>
+      </c>
+      <c r="E18" s="350" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="349" t="s">
+        <v>317</v>
+      </c>
+      <c r="D19" s="349" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="349" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="348"/>
+      <c r="D20" s="348"/>
+      <c r="E20" s="348"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="44" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="82" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
@@ -4218,12 +4487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z251"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="108" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.8"/>
@@ -4244,39 +4513,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="279" t="s">
+      <c r="B4" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="280" t="s">
+      <c r="C5" s="307" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
+      <c r="G5" s="307"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="280" t="s">
+      <c r="C6" s="307" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
+      <c r="D6" s="307"/>
+      <c r="E6" s="307"/>
+      <c r="F6" s="307"/>
+      <c r="G6" s="307"/>
       <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
@@ -4291,11 +4560,11 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="307"/>
+      <c r="F7" s="307"/>
+      <c r="G7" s="307"/>
       <c r="I7" s="7">
         <f>C15</f>
         <v>43</v>
@@ -4310,13 +4579,13 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="280" t="s">
+      <c r="C8" s="307" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="280"/>
-      <c r="E8" s="280"/>
-      <c r="F8" s="280"/>
-      <c r="G8" s="280"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
       <c r="I8" s="7">
         <f>D15</f>
         <v>4</v>
@@ -4331,13 +4600,13 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="280" t="s">
+      <c r="C9" s="307" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="280"/>
-      <c r="E9" s="280"/>
-      <c r="F9" s="280"/>
-      <c r="G9" s="280"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="307"/>
+      <c r="F9" s="307"/>
+      <c r="G9" s="307"/>
       <c r="I9" s="7">
         <f>E15</f>
         <v>1</v>
@@ -4363,11 +4632,11 @@
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="280"/>
+      <c r="C10" s="307"/>
+      <c r="D10" s="307"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="307"/>
+      <c r="G10" s="307"/>
       <c r="I10" s="7">
         <f>F15</f>
         <v>0</v>
@@ -4382,22 +4651,22 @@
       <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="281" t="s">
+      <c r="B11" s="308" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="281"/>
-      <c r="D11" s="281"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
+      <c r="C11" s="308"/>
+      <c r="D11" s="308"/>
+      <c r="E11" s="308"/>
+      <c r="F11" s="308"/>
+      <c r="G11" s="308"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="281"/>
-      <c r="C12" s="281"/>
-      <c r="D12" s="281"/>
-      <c r="E12" s="281"/>
-      <c r="F12" s="281"/>
-      <c r="G12" s="281"/>
+      <c r="B12" s="308"/>
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="308"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="13" t="s">
@@ -4532,21 +4801,21 @@
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B18" s="282" t="s">
+      <c r="B18" s="309" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="282"/>
-      <c r="D18" s="282"/>
-      <c r="E18" s="282"/>
-      <c r="F18" s="282"/>
-      <c r="G18" s="282"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="283" t="s">
+      <c r="B19" s="310" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="283"/>
-      <c r="D19" s="283"/>
+      <c r="C19" s="310"/>
+      <c r="D19" s="310"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>26</v>
@@ -4556,11 +4825,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="284" t="s">
+      <c r="B20" s="303" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="284"/>
-      <c r="D20" s="284"/>
+      <c r="C20" s="303"/>
+      <c r="D20" s="303"/>
       <c r="E20" s="31"/>
       <c r="F20" s="31" t="s">
         <v>29</v>
@@ -4570,11 +4839,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="284" t="s">
+      <c r="B21" s="303" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="284"/>
-      <c r="D21" s="284"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="303"/>
       <c r="E21" s="31"/>
       <c r="F21" s="31" t="s">
         <v>29</v>
@@ -4585,306 +4854,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="285"/>
-      <c r="C23" s="286" t="s">
+      <c r="B23" s="304"/>
+      <c r="C23" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="287" t="s">
+      <c r="D23" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="287"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="287"/>
+      <c r="E23" s="306"/>
+      <c r="F23" s="306"/>
+      <c r="G23" s="306"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="285"/>
-      <c r="C24" s="285"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
+      <c r="B24" s="304"/>
+      <c r="C24" s="304"/>
+      <c r="D24" s="306"/>
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="306"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="285"/>
-      <c r="C25" s="285"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="287"/>
+      <c r="B25" s="304"/>
+      <c r="C25" s="304"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="306"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="306"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B26" s="285"/>
-      <c r="C26" s="285"/>
-      <c r="D26" s="287"/>
-      <c r="E26" s="287"/>
-      <c r="F26" s="287"/>
-      <c r="G26" s="287"/>
+      <c r="B26" s="304"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="306"/>
+      <c r="E26" s="306"/>
+      <c r="F26" s="306"/>
+      <c r="G26" s="306"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="288" t="s">
+      <c r="B27" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="289" t="s">
+      <c r="C27" s="302" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="290" t="s">
+      <c r="D27" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="290"/>
-      <c r="F27" s="290"/>
-      <c r="G27" s="290"/>
+      <c r="E27" s="301"/>
+      <c r="F27" s="301"/>
+      <c r="G27" s="301"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="288"/>
-      <c r="C28" s="288"/>
-      <c r="D28" s="290"/>
-      <c r="E28" s="290"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="301"/>
+      <c r="E28" s="301"/>
+      <c r="F28" s="301"/>
+      <c r="G28" s="301"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="288"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="290"/>
-      <c r="E29" s="290"/>
-      <c r="F29" s="290"/>
-      <c r="G29" s="290"/>
+      <c r="B29" s="299"/>
+      <c r="C29" s="299"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="301"/>
+      <c r="F29" s="301"/>
+      <c r="G29" s="301"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B30" s="288"/>
-      <c r="C30" s="288"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="290"/>
+      <c r="B30" s="299"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="301"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="288" t="s">
+      <c r="B31" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="289" t="s">
+      <c r="C31" s="302" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="301" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="290"/>
-      <c r="F31" s="290"/>
-      <c r="G31" s="290"/>
+      <c r="E31" s="301"/>
+      <c r="F31" s="301"/>
+      <c r="G31" s="301"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="288"/>
-      <c r="C32" s="288"/>
-      <c r="D32" s="290"/>
-      <c r="E32" s="290"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="290"/>
+      <c r="B32" s="299"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="301"/>
+      <c r="F32" s="301"/>
+      <c r="G32" s="301"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="288"/>
-      <c r="C33" s="288"/>
-      <c r="D33" s="290"/>
-      <c r="E33" s="290"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="290"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="301"/>
+      <c r="F33" s="301"/>
+      <c r="G33" s="301"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="288"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="290"/>
-      <c r="E34" s="290"/>
-      <c r="F34" s="290"/>
-      <c r="G34" s="290"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="301"/>
+      <c r="E34" s="301"/>
+      <c r="F34" s="301"/>
+      <c r="G34" s="301"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="288" t="s">
+      <c r="B35" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="289" t="s">
+      <c r="C35" s="302" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="301" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="290"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="290"/>
+      <c r="E35" s="301"/>
+      <c r="F35" s="301"/>
+      <c r="G35" s="301"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="288"/>
-      <c r="C36" s="288"/>
-      <c r="D36" s="290"/>
-      <c r="E36" s="290"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="290"/>
+      <c r="B36" s="299"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="301"/>
+      <c r="E36" s="301"/>
+      <c r="F36" s="301"/>
+      <c r="G36" s="301"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="288"/>
-      <c r="C37" s="288"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="290"/>
+      <c r="B37" s="299"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="301"/>
+      <c r="E37" s="301"/>
+      <c r="F37" s="301"/>
+      <c r="G37" s="301"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="288"/>
-      <c r="C38" s="288"/>
-      <c r="D38" s="290"/>
-      <c r="E38" s="290"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="290"/>
+      <c r="B38" s="299"/>
+      <c r="C38" s="299"/>
+      <c r="D38" s="301"/>
+      <c r="E38" s="301"/>
+      <c r="F38" s="301"/>
+      <c r="G38" s="301"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="288" t="s">
+      <c r="B39" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="289" t="s">
+      <c r="C39" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="301" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="290"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="290"/>
+      <c r="E39" s="301"/>
+      <c r="F39" s="301"/>
+      <c r="G39" s="301"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="288"/>
-      <c r="C40" s="288"/>
-      <c r="D40" s="290"/>
-      <c r="E40" s="290"/>
-      <c r="F40" s="290"/>
-      <c r="G40" s="290"/>
+      <c r="B40" s="299"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="301"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="301"/>
+      <c r="G40" s="301"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="288"/>
-      <c r="C41" s="288"/>
-      <c r="D41" s="290"/>
-      <c r="E41" s="290"/>
-      <c r="F41" s="290"/>
-      <c r="G41" s="290"/>
+      <c r="B41" s="299"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="301"/>
+      <c r="E41" s="301"/>
+      <c r="F41" s="301"/>
+      <c r="G41" s="301"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="288"/>
-      <c r="C42" s="288"/>
-      <c r="D42" s="290"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="290"/>
+      <c r="B42" s="299"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="301"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="301"/>
+      <c r="G42" s="301"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="288" t="s">
+      <c r="B43" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="291" t="s">
+      <c r="C43" s="300" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="301" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="290"/>
-      <c r="F43" s="290"/>
-      <c r="G43" s="290"/>
+      <c r="E43" s="301"/>
+      <c r="F43" s="301"/>
+      <c r="G43" s="301"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="288"/>
-      <c r="C44" s="288"/>
-      <c r="D44" s="290"/>
-      <c r="E44" s="290"/>
-      <c r="F44" s="290"/>
-      <c r="G44" s="290"/>
+      <c r="B44" s="299"/>
+      <c r="C44" s="299"/>
+      <c r="D44" s="301"/>
+      <c r="E44" s="301"/>
+      <c r="F44" s="301"/>
+      <c r="G44" s="301"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="288"/>
-      <c r="C45" s="288"/>
-      <c r="D45" s="290"/>
-      <c r="E45" s="290"/>
-      <c r="F45" s="290"/>
-      <c r="G45" s="290"/>
+      <c r="B45" s="299"/>
+      <c r="C45" s="299"/>
+      <c r="D45" s="301"/>
+      <c r="E45" s="301"/>
+      <c r="F45" s="301"/>
+      <c r="G45" s="301"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="288"/>
-      <c r="C46" s="288"/>
-      <c r="D46" s="290"/>
-      <c r="E46" s="290"/>
-      <c r="F46" s="290"/>
-      <c r="G46" s="290"/>
+      <c r="B46" s="299"/>
+      <c r="C46" s="299"/>
+      <c r="D46" s="301"/>
+      <c r="E46" s="301"/>
+      <c r="F46" s="301"/>
+      <c r="G46" s="301"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="288" t="s">
+      <c r="B47" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="291" t="s">
+      <c r="C47" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="290" t="s">
+      <c r="D47" s="301" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="290"/>
-      <c r="F47" s="290"/>
-      <c r="G47" s="290"/>
+      <c r="E47" s="301"/>
+      <c r="F47" s="301"/>
+      <c r="G47" s="301"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="288"/>
-      <c r="C48" s="288"/>
-      <c r="D48" s="290"/>
-      <c r="E48" s="290"/>
-      <c r="F48" s="290"/>
-      <c r="G48" s="290"/>
+      <c r="B48" s="299"/>
+      <c r="C48" s="299"/>
+      <c r="D48" s="301"/>
+      <c r="E48" s="301"/>
+      <c r="F48" s="301"/>
+      <c r="G48" s="301"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="288"/>
-      <c r="C49" s="288"/>
-      <c r="D49" s="290"/>
-      <c r="E49" s="290"/>
-      <c r="F49" s="290"/>
-      <c r="G49" s="290"/>
+      <c r="B49" s="299"/>
+      <c r="C49" s="299"/>
+      <c r="D49" s="301"/>
+      <c r="E49" s="301"/>
+      <c r="F49" s="301"/>
+      <c r="G49" s="301"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1">
-      <c r="B50" s="288"/>
-      <c r="C50" s="288"/>
-      <c r="D50" s="290"/>
-      <c r="E50" s="290"/>
-      <c r="F50" s="290"/>
-      <c r="G50" s="290"/>
+      <c r="B50" s="299"/>
+      <c r="C50" s="299"/>
+      <c r="D50" s="301"/>
+      <c r="E50" s="301"/>
+      <c r="F50" s="301"/>
+      <c r="G50" s="301"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="288" t="s">
+      <c r="B51" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="291" t="s">
+      <c r="C51" s="300" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="290" t="s">
+      <c r="D51" s="301" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="290"/>
-      <c r="F51" s="290"/>
-      <c r="G51" s="290"/>
+      <c r="E51" s="301"/>
+      <c r="F51" s="301"/>
+      <c r="G51" s="301"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="288"/>
-      <c r="C52" s="288"/>
-      <c r="D52" s="290"/>
-      <c r="E52" s="290"/>
-      <c r="F52" s="290"/>
-      <c r="G52" s="290"/>
+      <c r="B52" s="299"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="301"/>
+      <c r="E52" s="301"/>
+      <c r="F52" s="301"/>
+      <c r="G52" s="301"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="288"/>
-      <c r="C53" s="288"/>
-      <c r="D53" s="290"/>
-      <c r="E53" s="290"/>
-      <c r="F53" s="290"/>
-      <c r="G53" s="290"/>
+      <c r="B53" s="299"/>
+      <c r="C53" s="299"/>
+      <c r="D53" s="301"/>
+      <c r="E53" s="301"/>
+      <c r="F53" s="301"/>
+      <c r="G53" s="301"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1">
-      <c r="B54" s="288"/>
-      <c r="C54" s="288"/>
-      <c r="D54" s="290"/>
-      <c r="E54" s="290"/>
-      <c r="F54" s="290"/>
-      <c r="G54" s="290"/>
+      <c r="B54" s="299"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="301"/>
+      <c r="E54" s="301"/>
+      <c r="F54" s="301"/>
+      <c r="G54" s="301"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -5085,6 +5354,33 @@
     <row r="251" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
     <mergeCell ref="B51:B54"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="D51:G54"/>
@@ -5094,33 +5390,6 @@
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="C47:C50"/>
     <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -5128,12 +5397,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD372"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="14.4"/>
@@ -5145,7 +5414,7 @@
     <col min="5" max="5" width="55.6640625" customWidth="1"/>
     <col min="6" max="6" width="38.88671875" customWidth="1"/>
     <col min="7" max="7" width="31.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="338" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="289" customWidth="1"/>
     <col min="9" max="9" width="18.109375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
@@ -5155,10 +5424,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="340" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="292"/>
+      <c r="B1" s="340"/>
       <c r="C1" s="278" t="s">
         <v>215</v>
       </c>
@@ -5174,14 +5443,14 @@
       <c r="G1" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="H1" s="334"/>
+      <c r="H1" s="285"/>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
       <c r="K1" s="36"/>
-      <c r="L1" s="293" t="s">
+      <c r="L1" s="341" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="293"/>
+      <c r="M1" s="341"/>
       <c r="N1" s="37"/>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -5200,10 +5469,10 @@
       <c r="AC1" s="37"/>
     </row>
     <row r="2" spans="1:30" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="340" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="292"/>
+      <c r="B2" s="340"/>
       <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
@@ -5219,7 +5488,7 @@
       <c r="G2" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="334"/>
+      <c r="H2" s="285"/>
       <c r="I2" s="35"/>
       <c r="J2" s="35"/>
       <c r="K2" s="36"/>
@@ -5248,10 +5517,10 @@
       <c r="AC2" s="37"/>
     </row>
     <row r="3" spans="1:30" ht="33" customHeight="1">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="340" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="292"/>
+      <c r="B3" s="340"/>
       <c r="C3" s="38"/>
       <c r="D3" s="39" t="s">
         <v>56</v>
@@ -5265,7 +5534,7 @@
       <c r="G3" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="334"/>
+      <c r="H3" s="285"/>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="36"/>
@@ -5294,10 +5563,10 @@
       <c r="AC3" s="37"/>
     </row>
     <row r="4" spans="1:30" ht="34.5" customHeight="1">
-      <c r="A4" s="292" t="s">
+      <c r="A4" s="340" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="292"/>
+      <c r="B4" s="340"/>
       <c r="C4" s="38"/>
       <c r="D4" s="39" t="s">
         <v>60</v>
@@ -5309,7 +5578,7 @@
       <c r="G4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="334"/>
+      <c r="H4" s="285"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="36"/>
@@ -5338,16 +5607,16 @@
       <c r="AC4" s="37"/>
     </row>
     <row r="5" spans="1:30" s="49" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="295" t="s">
+      <c r="A5" s="329" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="295"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="335"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="286"/>
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
@@ -5383,7 +5652,7 @@
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="334"/>
+      <c r="H6" s="285"/>
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="36"/>
@@ -5433,7 +5702,7 @@
       <c r="G7" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="336" t="s">
+      <c r="H7" s="287" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="54" t="s">
@@ -5525,7 +5794,7 @@
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
       <c r="G9" s="68"/>
-      <c r="H9" s="337"/>
+      <c r="H9" s="288"/>
       <c r="I9" s="68"/>
       <c r="J9" s="68"/>
       <c r="K9" s="68"/>
@@ -5553,13 +5822,13 @@
       <c r="A10" s="70">
         <v>2</v>
       </c>
-      <c r="B10" s="298" t="s">
+      <c r="B10" s="312" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="297" t="s">
+      <c r="C10" s="331" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="298" t="s">
+      <c r="D10" s="312" t="s">
         <v>86</v>
       </c>
       <c r="E10" s="59" t="s">
@@ -5605,9 +5874,9 @@
       <c r="A11" s="70">
         <v>3</v>
       </c>
-      <c r="B11" s="299"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="299"/>
+      <c r="B11" s="313"/>
+      <c r="C11" s="331"/>
+      <c r="D11" s="313"/>
       <c r="E11" s="59" t="s">
         <v>90</v>
       </c>
@@ -5651,9 +5920,9 @@
       <c r="A12" s="70">
         <v>4</v>
       </c>
-      <c r="B12" s="299"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="299"/>
+      <c r="B12" s="313"/>
+      <c r="C12" s="331"/>
+      <c r="D12" s="313"/>
       <c r="E12" s="59" t="s">
         <v>92</v>
       </c>
@@ -5697,9 +5966,9 @@
       <c r="A13" s="70">
         <v>5</v>
       </c>
-      <c r="B13" s="299"/>
-      <c r="C13" s="297"/>
-      <c r="D13" s="299"/>
+      <c r="B13" s="313"/>
+      <c r="C13" s="331"/>
+      <c r="D13" s="313"/>
       <c r="E13" s="59" t="s">
         <v>94</v>
       </c>
@@ -5743,9 +6012,9 @@
       <c r="A14" s="70">
         <v>6</v>
       </c>
-      <c r="B14" s="299"/>
-      <c r="C14" s="297"/>
-      <c r="D14" s="299"/>
+      <c r="B14" s="313"/>
+      <c r="C14" s="331"/>
+      <c r="D14" s="313"/>
       <c r="E14" s="59" t="s">
         <v>96</v>
       </c>
@@ -5789,9 +6058,9 @@
       <c r="A15" s="70">
         <v>7</v>
       </c>
-      <c r="B15" s="299"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="299"/>
+      <c r="B15" s="313"/>
+      <c r="C15" s="331"/>
+      <c r="D15" s="313"/>
       <c r="E15" s="59" t="s">
         <v>150</v>
       </c>
@@ -5835,9 +6104,9 @@
       <c r="A16" s="70">
         <v>8</v>
       </c>
-      <c r="B16" s="299"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="299"/>
+      <c r="B16" s="313"/>
+      <c r="C16" s="331"/>
+      <c r="D16" s="313"/>
       <c r="E16" s="59" t="s">
         <v>152</v>
       </c>
@@ -5881,9 +6150,9 @@
       <c r="A17" s="70">
         <v>9</v>
       </c>
-      <c r="B17" s="299"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="299"/>
+      <c r="B17" s="313"/>
+      <c r="C17" s="331"/>
+      <c r="D17" s="313"/>
       <c r="E17" s="83" t="s">
         <v>99</v>
       </c>
@@ -5899,7 +6168,7 @@
       <c r="I17" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="J17" s="333" t="s">
+      <c r="J17" s="284" t="s">
         <v>277</v>
       </c>
       <c r="K17" s="237"/>
@@ -5929,9 +6198,9 @@
       <c r="A18" s="70">
         <v>10</v>
       </c>
-      <c r="B18" s="299"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="299"/>
+      <c r="B18" s="313"/>
+      <c r="C18" s="331"/>
+      <c r="D18" s="313"/>
       <c r="E18" s="83" t="s">
         <v>100</v>
       </c>
@@ -5945,7 +6214,7 @@
       <c r="I18" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="J18" s="327"/>
+      <c r="J18"/>
       <c r="K18" s="237"/>
       <c r="L18" s="231" t="s">
         <v>12</v>
@@ -5971,9 +6240,9 @@
     </row>
     <row r="19" spans="1:30" s="80" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A19" s="64"/>
-      <c r="B19" s="299"/>
+      <c r="B19" s="313"/>
       <c r="C19" s="75"/>
-      <c r="D19" s="299"/>
+      <c r="D19" s="313"/>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
@@ -6005,11 +6274,11 @@
       <c r="A20" s="81">
         <v>11</v>
       </c>
-      <c r="B20" s="299"/>
-      <c r="C20" s="298" t="s">
+      <c r="B20" s="313"/>
+      <c r="C20" s="312" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="299"/>
+      <c r="D20" s="313"/>
       <c r="E20" s="82" t="s">
         <v>155</v>
       </c>
@@ -6051,9 +6320,9 @@
       <c r="A21" s="81">
         <v>12</v>
       </c>
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
+      <c r="B21" s="313"/>
+      <c r="C21" s="313"/>
+      <c r="D21" s="313"/>
       <c r="E21" s="82" t="s">
         <v>158</v>
       </c>
@@ -6097,9 +6366,9 @@
       <c r="A22" s="81">
         <v>13</v>
       </c>
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="313"/>
       <c r="E22" s="88" t="s">
         <v>160</v>
       </c>
@@ -6143,9 +6412,9 @@
       <c r="A23" s="81">
         <v>14</v>
       </c>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
+      <c r="B23" s="313"/>
+      <c r="C23" s="313"/>
+      <c r="D23" s="313"/>
       <c r="E23" s="88" t="s">
         <v>166</v>
       </c>
@@ -6161,7 +6430,7 @@
       <c r="I23" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="J23" s="332" t="s">
+      <c r="J23" s="283" t="s">
         <v>278</v>
       </c>
       <c r="K23" s="90"/>
@@ -6191,9 +6460,9 @@
       <c r="A24" s="81">
         <v>15</v>
       </c>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
+      <c r="B24" s="313"/>
+      <c r="C24" s="313"/>
+      <c r="D24" s="313"/>
       <c r="E24" s="88" t="s">
         <v>167</v>
       </c>
@@ -6209,7 +6478,7 @@
       <c r="I24" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="333" t="s">
+      <c r="J24" s="284" t="s">
         <v>279</v>
       </c>
       <c r="K24" s="85"/>
@@ -6239,9 +6508,9 @@
       <c r="A25" s="81">
         <v>16</v>
       </c>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
+      <c r="B25" s="313"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="313"/>
       <c r="E25" s="88" t="s">
         <v>176</v>
       </c>
@@ -6285,9 +6554,9 @@
       <c r="A26" s="81">
         <v>17</v>
       </c>
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
+      <c r="B26" s="313"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="313"/>
       <c r="E26" s="82" t="s">
         <v>169</v>
       </c>
@@ -6331,9 +6600,9 @@
       <c r="A27" s="81">
         <v>18</v>
       </c>
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
+      <c r="B27" s="313"/>
+      <c r="C27" s="313"/>
+      <c r="D27" s="313"/>
       <c r="E27" s="233" t="s">
         <v>172</v>
       </c>
@@ -6375,9 +6644,9 @@
       <c r="A28" s="81">
         <v>19</v>
       </c>
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
+      <c r="B28" s="313"/>
+      <c r="C28" s="313"/>
+      <c r="D28" s="313"/>
       <c r="E28" s="82" t="s">
         <v>174</v>
       </c>
@@ -6419,9 +6688,9 @@
       <c r="A29" s="81">
         <v>20</v>
       </c>
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
+      <c r="B29" s="313"/>
+      <c r="C29" s="313"/>
+      <c r="D29" s="313"/>
       <c r="E29" s="82" t="s">
         <v>179</v>
       </c>
@@ -6463,9 +6732,9 @@
       <c r="A30" s="81">
         <v>21</v>
       </c>
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
       <c r="E30" s="82" t="s">
         <v>182</v>
       </c>
@@ -6475,7 +6744,7 @@
       <c r="G30" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="330"/>
+      <c r="H30" s="281"/>
       <c r="I30" s="232" t="s">
         <v>183</v>
       </c>
@@ -6507,9 +6776,9 @@
       <c r="A31" s="81">
         <v>22</v>
       </c>
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
+      <c r="B31" s="313"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="313"/>
       <c r="E31" s="82" t="s">
         <v>184</v>
       </c>
@@ -6551,9 +6820,9 @@
       <c r="A32" s="81">
         <v>23</v>
       </c>
-      <c r="B32" s="299"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="299"/>
+      <c r="B32" s="313"/>
+      <c r="C32" s="313"/>
+      <c r="D32" s="313"/>
       <c r="E32" s="88" t="s">
         <v>201</v>
       </c>
@@ -6563,10 +6832,10 @@
       <c r="G32" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="341" t="s">
+      <c r="H32" s="292" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="329" t="s">
+      <c r="I32" s="280" t="s">
         <v>204</v>
       </c>
       <c r="J32" s="83"/>
@@ -6597,19 +6866,19 @@
       <c r="A33" s="81">
         <v>24</v>
       </c>
-      <c r="B33" s="299"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
+      <c r="B33" s="313"/>
+      <c r="C33" s="313"/>
+      <c r="D33" s="313"/>
       <c r="E33" s="233" t="s">
         <v>190</v>
       </c>
       <c r="F33" s="234" t="s">
         <v>191</v>
       </c>
-      <c r="G33" s="328" t="s">
+      <c r="G33" s="279" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="342" t="s">
+      <c r="H33" s="293" t="s">
         <v>192</v>
       </c>
       <c r="I33" s="232" t="s">
@@ -6643,9 +6912,9 @@
       <c r="A34" s="81">
         <v>25</v>
       </c>
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
+      <c r="B34" s="313"/>
+      <c r="C34" s="313"/>
+      <c r="D34" s="313"/>
       <c r="E34" s="82" t="s">
         <v>194</v>
       </c>
@@ -6655,13 +6924,13 @@
       <c r="G34" s="246" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="343" t="s">
+      <c r="H34" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="I34" s="329" t="s">
+      <c r="I34" s="280" t="s">
         <v>196</v>
       </c>
-      <c r="J34" s="333" t="s">
+      <c r="J34" s="284" t="s">
         <v>282</v>
       </c>
       <c r="K34" s="83"/>
@@ -6691,9 +6960,9 @@
       <c r="A35" s="81">
         <v>26</v>
       </c>
-      <c r="B35" s="299"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="299"/>
+      <c r="B35" s="313"/>
+      <c r="C35" s="313"/>
+      <c r="D35" s="313"/>
       <c r="E35" s="88" t="s">
         <v>197</v>
       </c>
@@ -6703,10 +6972,10 @@
       <c r="G35" s="246" t="s">
         <v>200</v>
       </c>
-      <c r="H35" s="340" t="s">
+      <c r="H35" s="291" t="s">
         <v>198</v>
       </c>
-      <c r="I35" s="329" t="s">
+      <c r="I35" s="280" t="s">
         <v>199</v>
       </c>
       <c r="J35" s="83"/>
@@ -6737,9 +7006,9 @@
       <c r="A36" s="81">
         <v>27</v>
       </c>
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
+      <c r="B36" s="313"/>
+      <c r="C36" s="313"/>
+      <c r="D36" s="313"/>
       <c r="E36" s="88" t="s">
         <v>187</v>
       </c>
@@ -6749,7 +7018,7 @@
       <c r="G36" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="331" t="s">
+      <c r="H36" s="282" t="s">
         <v>188</v>
       </c>
       <c r="I36" s="232" t="s">
@@ -6783,9 +7052,9 @@
       <c r="A37" s="81">
         <v>28</v>
       </c>
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
+      <c r="B37" s="313"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="313"/>
       <c r="E37" s="59" t="s">
         <v>205</v>
       </c>
@@ -6829,9 +7098,9 @@
       <c r="A38" s="81">
         <v>29</v>
       </c>
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
+      <c r="B38" s="313"/>
+      <c r="C38" s="313"/>
+      <c r="D38" s="313"/>
       <c r="E38" s="59" t="s">
         <v>208</v>
       </c>
@@ -6875,9 +7144,9 @@
       <c r="A39" s="81">
         <v>30</v>
       </c>
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
+      <c r="B39" s="313"/>
+      <c r="C39" s="313"/>
+      <c r="D39" s="313"/>
       <c r="E39" s="59" t="s">
         <v>211</v>
       </c>
@@ -6921,9 +7190,9 @@
       <c r="A40" s="81">
         <v>31</v>
       </c>
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
+      <c r="B40" s="313"/>
+      <c r="C40" s="313"/>
+      <c r="D40" s="313"/>
       <c r="E40" s="59" t="s">
         <v>217</v>
       </c>
@@ -6965,9 +7234,9 @@
       <c r="A41" s="81">
         <v>32</v>
       </c>
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
+      <c r="B41" s="313"/>
+      <c r="C41" s="313"/>
+      <c r="D41" s="313"/>
       <c r="E41" s="59" t="s">
         <v>220</v>
       </c>
@@ -7011,9 +7280,9 @@
       <c r="A42" s="81">
         <v>33</v>
       </c>
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
+      <c r="B42" s="313"/>
+      <c r="C42" s="313"/>
+      <c r="D42" s="313"/>
       <c r="E42" s="59" t="s">
         <v>223</v>
       </c>
@@ -7055,9 +7324,9 @@
     </row>
     <row r="43" spans="1:30" s="96" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A43" s="81"/>
-      <c r="B43" s="299"/>
+      <c r="B43" s="313"/>
       <c r="C43" s="93"/>
-      <c r="D43" s="299"/>
+      <c r="D43" s="313"/>
       <c r="E43" s="94"/>
       <c r="F43" s="76"/>
       <c r="G43" s="76"/>
@@ -7089,11 +7358,11 @@
       <c r="A44" s="81">
         <v>34</v>
       </c>
-      <c r="B44" s="299"/>
-      <c r="C44" s="300" t="s">
+      <c r="B44" s="313"/>
+      <c r="C44" s="332" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="299"/>
+      <c r="D44" s="313"/>
       <c r="E44" s="88" t="s">
         <v>104</v>
       </c>
@@ -7103,7 +7372,7 @@
       <c r="G44" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="H44" s="338" t="s">
+      <c r="H44" s="289" t="s">
         <v>228</v>
       </c>
       <c r="I44" s="83" t="s">
@@ -7136,9 +7405,9 @@
       <c r="A45" s="81">
         <v>35</v>
       </c>
-      <c r="B45" s="299"/>
-      <c r="C45" s="300"/>
-      <c r="D45" s="299"/>
+      <c r="B45" s="313"/>
+      <c r="C45" s="332"/>
+      <c r="D45" s="313"/>
       <c r="E45" s="97" t="s">
         <v>106</v>
       </c>
@@ -7181,9 +7450,9 @@
       <c r="A46" s="81">
         <v>36</v>
       </c>
-      <c r="B46" s="299"/>
-      <c r="C46" s="300"/>
-      <c r="D46" s="320"/>
+      <c r="B46" s="313"/>
+      <c r="C46" s="332"/>
+      <c r="D46" s="314"/>
       <c r="E46" s="97" t="s">
         <v>109</v>
       </c>
@@ -7224,7 +7493,7 @@
     </row>
     <row r="47" spans="1:30" s="86" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A47" s="81"/>
-      <c r="B47" s="299"/>
+      <c r="B47" s="313"/>
       <c r="C47" s="98"/>
       <c r="D47" s="99"/>
       <c r="E47" s="100"/>
@@ -7258,11 +7527,11 @@
       <c r="A48" s="81">
         <v>37</v>
       </c>
-      <c r="B48" s="299"/>
-      <c r="C48" s="301" t="s">
+      <c r="B48" s="313"/>
+      <c r="C48" s="333" t="s">
         <v>112</v>
       </c>
-      <c r="D48" s="301" t="s">
+      <c r="D48" s="333" t="s">
         <v>113</v>
       </c>
       <c r="E48" s="83" t="s">
@@ -7308,9 +7577,9 @@
       <c r="A49" s="81">
         <v>38</v>
       </c>
-      <c r="B49" s="299"/>
-      <c r="C49" s="301"/>
-      <c r="D49" s="301"/>
+      <c r="B49" s="313"/>
+      <c r="C49" s="333"/>
+      <c r="D49" s="333"/>
       <c r="E49" s="88" t="s">
         <v>240</v>
       </c>
@@ -7320,7 +7589,7 @@
       <c r="G49" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="H49" s="338" t="s">
+      <c r="H49" s="289" t="s">
         <v>244</v>
       </c>
       <c r="I49" s="84" t="s">
@@ -7354,9 +7623,9 @@
       <c r="A50" s="81">
         <v>39</v>
       </c>
-      <c r="B50" s="299"/>
-      <c r="C50" s="301"/>
-      <c r="D50" s="301"/>
+      <c r="B50" s="313"/>
+      <c r="C50" s="333"/>
+      <c r="D50" s="333"/>
       <c r="E50" s="88" t="s">
         <v>243</v>
       </c>
@@ -7400,9 +7669,9 @@
       <c r="A51" s="81">
         <v>40</v>
       </c>
-      <c r="B51" s="299"/>
-      <c r="C51" s="301"/>
-      <c r="D51" s="301"/>
+      <c r="B51" s="313"/>
+      <c r="C51" s="333"/>
+      <c r="D51" s="333"/>
       <c r="E51" s="88" t="s">
         <v>247</v>
       </c>
@@ -7446,9 +7715,9 @@
       <c r="A52" s="81">
         <v>41</v>
       </c>
-      <c r="B52" s="299"/>
-      <c r="C52" s="301"/>
-      <c r="D52" s="301"/>
+      <c r="B52" s="313"/>
+      <c r="C52" s="333"/>
+      <c r="D52" s="333"/>
       <c r="E52" s="88" t="s">
         <v>250</v>
       </c>
@@ -7492,9 +7761,9 @@
       <c r="A53" s="81">
         <v>42</v>
       </c>
-      <c r="B53" s="299"/>
-      <c r="C53" s="301"/>
-      <c r="D53" s="301"/>
+      <c r="B53" s="313"/>
+      <c r="C53" s="333"/>
+      <c r="D53" s="333"/>
       <c r="E53" s="72" t="s">
         <v>269</v>
       </c>
@@ -7538,9 +7807,9 @@
       <c r="A54" s="81">
         <v>43</v>
       </c>
-      <c r="B54" s="299"/>
-      <c r="C54" s="301"/>
-      <c r="D54" s="301"/>
+      <c r="B54" s="313"/>
+      <c r="C54" s="333"/>
+      <c r="D54" s="333"/>
       <c r="E54" s="88" t="s">
         <v>253</v>
       </c>
@@ -7584,9 +7853,9 @@
       <c r="A55" s="81">
         <v>44</v>
       </c>
-      <c r="B55" s="299"/>
-      <c r="C55" s="301"/>
-      <c r="D55" s="301"/>
+      <c r="B55" s="313"/>
+      <c r="C55" s="333"/>
+      <c r="D55" s="333"/>
       <c r="E55" s="88" t="s">
         <v>255</v>
       </c>
@@ -7630,9 +7899,9 @@
       <c r="A56" s="81">
         <v>45</v>
       </c>
-      <c r="B56" s="299"/>
-      <c r="C56" s="301"/>
-      <c r="D56" s="301"/>
+      <c r="B56" s="313"/>
+      <c r="C56" s="333"/>
+      <c r="D56" s="333"/>
       <c r="E56" s="88" t="s">
         <v>257</v>
       </c>
@@ -7676,9 +7945,9 @@
       <c r="A57" s="81">
         <v>46</v>
       </c>
-      <c r="B57" s="299"/>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
+      <c r="B57" s="313"/>
+      <c r="C57" s="333"/>
+      <c r="D57" s="333"/>
       <c r="E57" s="88" t="s">
         <v>259</v>
       </c>
@@ -7722,9 +7991,9 @@
       <c r="A58" s="81">
         <v>47</v>
       </c>
-      <c r="B58" s="299"/>
-      <c r="C58" s="301"/>
-      <c r="D58" s="301"/>
+      <c r="B58" s="313"/>
+      <c r="C58" s="333"/>
+      <c r="D58" s="333"/>
       <c r="E58" s="82" t="s">
         <v>262</v>
       </c>
@@ -7768,9 +8037,9 @@
       <c r="A59" s="81">
         <v>48</v>
       </c>
-      <c r="B59" s="299"/>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
+      <c r="B59" s="313"/>
+      <c r="C59" s="333"/>
+      <c r="D59" s="333"/>
       <c r="E59" s="88" t="s">
         <v>264</v>
       </c>
@@ -7812,7 +8081,7 @@
     </row>
     <row r="60" spans="1:30" s="96" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A60" s="92"/>
-      <c r="B60" s="299"/>
+      <c r="B60" s="313"/>
       <c r="C60" s="104"/>
       <c r="D60" s="105"/>
       <c r="E60" s="106"/>
@@ -7844,9 +8113,9 @@
     </row>
     <row r="61" spans="1:30" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A61" s="81"/>
-      <c r="B61" s="299"/>
-      <c r="C61" s="302"/>
-      <c r="D61" s="303" t="s">
+      <c r="B61" s="313"/>
+      <c r="C61" s="334"/>
+      <c r="D61" s="335" t="s">
         <v>114</v>
       </c>
       <c r="E61" s="88"/>
@@ -7878,9 +8147,9 @@
     </row>
     <row r="62" spans="1:30" s="86" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
       <c r="A62" s="81"/>
-      <c r="B62" s="299"/>
-      <c r="C62" s="302"/>
-      <c r="D62" s="303"/>
+      <c r="B62" s="313"/>
+      <c r="C62" s="334"/>
+      <c r="D62" s="335"/>
       <c r="E62" s="88"/>
       <c r="F62" s="83"/>
       <c r="G62" s="83"/>
@@ -7910,9 +8179,9 @@
     </row>
     <row r="63" spans="1:30" s="86" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
       <c r="A63" s="81"/>
-      <c r="B63" s="299"/>
-      <c r="C63" s="302"/>
-      <c r="D63" s="303"/>
+      <c r="B63" s="313"/>
+      <c r="C63" s="334"/>
+      <c r="D63" s="335"/>
       <c r="E63" s="83"/>
       <c r="F63" s="70"/>
       <c r="G63" s="83"/>
@@ -7942,9 +8211,9 @@
     </row>
     <row r="64" spans="1:30" s="86" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="81"/>
-      <c r="B64" s="320"/>
-      <c r="C64" s="302"/>
-      <c r="D64" s="303"/>
+      <c r="B64" s="314"/>
+      <c r="C64" s="334"/>
+      <c r="D64" s="335"/>
       <c r="E64" s="83"/>
       <c r="F64" s="83"/>
       <c r="G64" s="83"/>
@@ -7975,7 +8244,7 @@
     <row r="65" spans="1:30" s="86" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A65" s="81"/>
       <c r="B65" s="271"/>
-      <c r="C65" s="302"/>
+      <c r="C65" s="334"/>
       <c r="D65" s="108"/>
       <c r="E65" s="109"/>
       <c r="F65" s="83"/>
@@ -8200,7 +8469,7 @@
       <c r="A72" s="110"/>
       <c r="B72" s="271"/>
       <c r="C72" s="107"/>
-      <c r="D72" s="304"/>
+      <c r="D72" s="336"/>
       <c r="E72" s="111"/>
       <c r="F72" s="70"/>
       <c r="G72" s="83"/>
@@ -8232,7 +8501,7 @@
       <c r="A73" s="110"/>
       <c r="B73" s="271"/>
       <c r="C73" s="107"/>
-      <c r="D73" s="304"/>
+      <c r="D73" s="336"/>
       <c r="E73" s="111"/>
       <c r="F73" s="83"/>
       <c r="G73" s="83"/>
@@ -8264,7 +8533,7 @@
       <c r="A74" s="110"/>
       <c r="B74" s="271"/>
       <c r="C74" s="107"/>
-      <c r="D74" s="304"/>
+      <c r="D74" s="336"/>
       <c r="E74" s="113"/>
       <c r="F74" s="59"/>
       <c r="G74" s="83"/>
@@ -8296,7 +8565,7 @@
       <c r="A75" s="110"/>
       <c r="B75" s="271"/>
       <c r="C75" s="107"/>
-      <c r="D75" s="304"/>
+      <c r="D75" s="336"/>
       <c r="E75" s="113"/>
       <c r="F75" s="59"/>
       <c r="G75" s="83"/>
@@ -8328,7 +8597,7 @@
       <c r="A76" s="110"/>
       <c r="B76" s="271"/>
       <c r="C76" s="107"/>
-      <c r="D76" s="304"/>
+      <c r="D76" s="336"/>
       <c r="E76" s="113"/>
       <c r="F76" s="59"/>
       <c r="G76" s="83"/>
@@ -8392,7 +8661,7 @@
       <c r="A78" s="110"/>
       <c r="B78" s="271"/>
       <c r="C78" s="107"/>
-      <c r="D78" s="304"/>
+      <c r="D78" s="336"/>
       <c r="E78" s="109"/>
       <c r="F78" s="83"/>
       <c r="G78" s="83"/>
@@ -8424,7 +8693,7 @@
       <c r="A79" s="110"/>
       <c r="B79" s="271"/>
       <c r="C79" s="107"/>
-      <c r="D79" s="304"/>
+      <c r="D79" s="336"/>
       <c r="E79" s="109"/>
       <c r="F79" s="83"/>
       <c r="G79" s="83"/>
@@ -8488,7 +8757,7 @@
       <c r="A81" s="110"/>
       <c r="B81" s="271"/>
       <c r="C81" s="107"/>
-      <c r="D81" s="305"/>
+      <c r="D81" s="337"/>
       <c r="E81" s="111"/>
       <c r="F81" s="83"/>
       <c r="G81" s="83"/>
@@ -8520,7 +8789,7 @@
       <c r="A82" s="110"/>
       <c r="B82" s="271"/>
       <c r="C82" s="107"/>
-      <c r="D82" s="305"/>
+      <c r="D82" s="337"/>
       <c r="E82" s="111"/>
       <c r="F82" s="83"/>
       <c r="G82" s="83"/>
@@ -8552,7 +8821,7 @@
       <c r="A83" s="110"/>
       <c r="B83" s="271"/>
       <c r="C83" s="107"/>
-      <c r="D83" s="305"/>
+      <c r="D83" s="337"/>
       <c r="E83" s="113"/>
       <c r="F83" s="59"/>
       <c r="G83" s="83"/>
@@ -8584,7 +8853,7 @@
       <c r="A84" s="110"/>
       <c r="B84" s="271"/>
       <c r="C84" s="107"/>
-      <c r="D84" s="305"/>
+      <c r="D84" s="337"/>
       <c r="E84" s="109"/>
       <c r="F84" s="83"/>
       <c r="G84" s="83"/>
@@ -8616,7 +8885,7 @@
       <c r="A85" s="110"/>
       <c r="B85" s="271"/>
       <c r="C85" s="107"/>
-      <c r="D85" s="305"/>
+      <c r="D85" s="337"/>
       <c r="E85" s="109"/>
       <c r="F85" s="83"/>
       <c r="G85" s="83"/>
@@ -8648,7 +8917,7 @@
       <c r="A86" s="110"/>
       <c r="B86" s="271"/>
       <c r="C86" s="107"/>
-      <c r="D86" s="305"/>
+      <c r="D86" s="337"/>
       <c r="E86" s="111"/>
       <c r="F86" s="83"/>
       <c r="G86" s="83"/>
@@ -8680,7 +8949,7 @@
       <c r="A87" s="110"/>
       <c r="B87" s="271"/>
       <c r="C87" s="107"/>
-      <c r="D87" s="305"/>
+      <c r="D87" s="337"/>
       <c r="E87" s="111"/>
       <c r="F87" s="83"/>
       <c r="G87" s="83"/>
@@ -8712,7 +8981,7 @@
       <c r="A88" s="110"/>
       <c r="B88" s="271"/>
       <c r="C88" s="107"/>
-      <c r="D88" s="305"/>
+      <c r="D88" s="337"/>
       <c r="E88" s="111"/>
       <c r="F88" s="83"/>
       <c r="G88" s="83"/>
@@ -8744,7 +9013,7 @@
       <c r="A89" s="110"/>
       <c r="B89" s="271"/>
       <c r="C89" s="107"/>
-      <c r="D89" s="305"/>
+      <c r="D89" s="337"/>
       <c r="E89" s="113"/>
       <c r="F89" s="59"/>
       <c r="G89" s="83"/>
@@ -8776,7 +9045,7 @@
       <c r="A90" s="110"/>
       <c r="B90" s="271"/>
       <c r="C90" s="107"/>
-      <c r="D90" s="305"/>
+      <c r="D90" s="337"/>
       <c r="E90" s="115"/>
       <c r="F90" s="87"/>
       <c r="G90" s="87"/>
@@ -8808,7 +9077,7 @@
       <c r="A91" s="110"/>
       <c r="B91" s="271"/>
       <c r="C91" s="107"/>
-      <c r="D91" s="305"/>
+      <c r="D91" s="337"/>
       <c r="E91" s="109"/>
       <c r="F91" s="83"/>
       <c r="G91" s="83"/>
@@ -8872,7 +9141,7 @@
       <c r="A93" s="110"/>
       <c r="B93" s="271"/>
       <c r="C93" s="107"/>
-      <c r="D93" s="306"/>
+      <c r="D93" s="338"/>
       <c r="E93" s="111"/>
       <c r="F93" s="83"/>
       <c r="G93" s="83"/>
@@ -8904,7 +9173,7 @@
       <c r="A94" s="110"/>
       <c r="B94" s="271"/>
       <c r="C94" s="107"/>
-      <c r="D94" s="306"/>
+      <c r="D94" s="338"/>
       <c r="E94" s="111"/>
       <c r="F94" s="83"/>
       <c r="G94" s="83"/>
@@ -8936,7 +9205,7 @@
       <c r="A95" s="110"/>
       <c r="B95" s="271"/>
       <c r="C95" s="107"/>
-      <c r="D95" s="306"/>
+      <c r="D95" s="338"/>
       <c r="E95" s="111"/>
       <c r="F95" s="83"/>
       <c r="G95" s="83"/>
@@ -8968,7 +9237,7 @@
       <c r="A96" s="110"/>
       <c r="B96" s="271"/>
       <c r="C96" s="107"/>
-      <c r="D96" s="306"/>
+      <c r="D96" s="338"/>
       <c r="E96" s="113"/>
       <c r="F96" s="59"/>
       <c r="G96" s="83"/>
@@ -9000,7 +9269,7 @@
       <c r="A97" s="117"/>
       <c r="B97" s="271"/>
       <c r="C97" s="118"/>
-      <c r="D97" s="306"/>
+      <c r="D97" s="338"/>
       <c r="E97" s="119"/>
       <c r="F97" s="120"/>
       <c r="G97" s="120"/>
@@ -9031,7 +9300,7 @@
       <c r="A98" s="122"/>
       <c r="B98" s="271"/>
       <c r="C98" s="118"/>
-      <c r="D98" s="306"/>
+      <c r="D98" s="338"/>
       <c r="E98" s="123"/>
       <c r="F98" s="124"/>
       <c r="G98" s="125"/>
@@ -9062,7 +9331,7 @@
       <c r="A99" s="122"/>
       <c r="B99" s="271"/>
       <c r="C99" s="118"/>
-      <c r="D99" s="306"/>
+      <c r="D99" s="338"/>
       <c r="E99" s="129"/>
       <c r="F99" s="130"/>
       <c r="G99" s="130"/>
@@ -9093,7 +9362,7 @@
       <c r="A100" s="122"/>
       <c r="B100" s="271"/>
       <c r="C100" s="118"/>
-      <c r="D100" s="306"/>
+      <c r="D100" s="338"/>
       <c r="E100" s="129"/>
       <c r="F100" s="130"/>
       <c r="G100" s="130"/>
@@ -9124,7 +9393,7 @@
       <c r="A101" s="122"/>
       <c r="B101" s="271"/>
       <c r="C101" s="118"/>
-      <c r="D101" s="306"/>
+      <c r="D101" s="338"/>
       <c r="E101" s="133"/>
       <c r="F101" s="130"/>
       <c r="G101" s="130"/>
@@ -9155,7 +9424,7 @@
       <c r="A102" s="122"/>
       <c r="B102" s="271"/>
       <c r="C102" s="118"/>
-      <c r="D102" s="306"/>
+      <c r="D102" s="338"/>
       <c r="E102" s="134"/>
       <c r="F102" s="124"/>
       <c r="G102" s="125"/>
@@ -9217,7 +9486,7 @@
       <c r="A104" s="122"/>
       <c r="B104" s="271"/>
       <c r="C104" s="118"/>
-      <c r="D104" s="307"/>
+      <c r="D104" s="339"/>
       <c r="E104" s="136"/>
       <c r="F104" s="124"/>
       <c r="G104" s="125"/>
@@ -9248,7 +9517,7 @@
       <c r="A105" s="122"/>
       <c r="B105" s="271"/>
       <c r="C105" s="118"/>
-      <c r="D105" s="307"/>
+      <c r="D105" s="339"/>
       <c r="E105" s="138"/>
       <c r="F105" s="130"/>
       <c r="G105" s="130"/>
@@ -9310,7 +9579,7 @@
       <c r="A107" s="122"/>
       <c r="B107" s="271"/>
       <c r="C107" s="118"/>
-      <c r="D107" s="312"/>
+      <c r="D107" s="324"/>
       <c r="E107" s="138"/>
       <c r="F107" s="130"/>
       <c r="G107" s="130"/>
@@ -9341,7 +9610,7 @@
       <c r="A108" s="122"/>
       <c r="B108" s="271"/>
       <c r="C108" s="118"/>
-      <c r="D108" s="312"/>
+      <c r="D108" s="324"/>
       <c r="E108" s="136"/>
       <c r="F108" s="130"/>
       <c r="G108" s="130"/>
@@ -9372,7 +9641,7 @@
       <c r="A109" s="122"/>
       <c r="B109" s="271"/>
       <c r="C109" s="118"/>
-      <c r="D109" s="312"/>
+      <c r="D109" s="324"/>
       <c r="E109" s="138"/>
       <c r="F109" s="130"/>
       <c r="G109" s="130"/>
@@ -9403,7 +9672,7 @@
       <c r="A110" s="122"/>
       <c r="B110" s="271"/>
       <c r="C110" s="118"/>
-      <c r="D110" s="312"/>
+      <c r="D110" s="324"/>
       <c r="E110" s="136"/>
       <c r="F110" s="124"/>
       <c r="G110" s="125"/>
@@ -9434,7 +9703,7 @@
       <c r="A111" s="122"/>
       <c r="B111" s="271"/>
       <c r="C111" s="118"/>
-      <c r="D111" s="312"/>
+      <c r="D111" s="324"/>
       <c r="E111" s="140"/>
       <c r="F111" s="141"/>
       <c r="G111" s="132"/>
@@ -9465,7 +9734,7 @@
       <c r="A112" s="122"/>
       <c r="B112" s="271"/>
       <c r="C112" s="118"/>
-      <c r="D112" s="312"/>
+      <c r="D112" s="324"/>
       <c r="E112" s="136"/>
       <c r="F112" s="142"/>
       <c r="G112" s="125"/>
@@ -9496,7 +9765,7 @@
       <c r="A113" s="122"/>
       <c r="B113" s="271"/>
       <c r="C113" s="118"/>
-      <c r="D113" s="312"/>
+      <c r="D113" s="324"/>
       <c r="E113" s="140"/>
       <c r="F113" s="143"/>
       <c r="G113" s="132"/>
@@ -9558,7 +9827,7 @@
       <c r="A115" s="122"/>
       <c r="B115" s="271"/>
       <c r="C115" s="118"/>
-      <c r="D115" s="313"/>
+      <c r="D115" s="325"/>
       <c r="E115" s="145"/>
       <c r="F115" s="146"/>
       <c r="G115" s="132"/>
@@ -9589,7 +9858,7 @@
       <c r="A116" s="122"/>
       <c r="B116" s="271"/>
       <c r="C116" s="118"/>
-      <c r="D116" s="313"/>
+      <c r="D116" s="325"/>
       <c r="E116" s="140"/>
       <c r="F116" s="146"/>
       <c r="G116" s="132"/>
@@ -9620,7 +9889,7 @@
       <c r="A117" s="122"/>
       <c r="B117" s="271"/>
       <c r="C117" s="118"/>
-      <c r="D117" s="313"/>
+      <c r="D117" s="325"/>
       <c r="E117" s="147"/>
       <c r="F117" s="137"/>
       <c r="G117" s="137"/>
@@ -9651,7 +9920,7 @@
       <c r="A118" s="122"/>
       <c r="B118" s="271"/>
       <c r="C118" s="118"/>
-      <c r="D118" s="313"/>
+      <c r="D118" s="325"/>
       <c r="E118" s="147"/>
       <c r="F118" s="137"/>
       <c r="G118" s="137"/>
@@ -9682,7 +9951,7 @@
       <c r="A119" s="122"/>
       <c r="B119" s="271"/>
       <c r="C119" s="118"/>
-      <c r="D119" s="313"/>
+      <c r="D119" s="325"/>
       <c r="E119" s="147"/>
       <c r="F119" s="137"/>
       <c r="G119" s="137"/>
@@ -9713,7 +9982,7 @@
       <c r="A120" s="122"/>
       <c r="B120" s="271"/>
       <c r="C120" s="118"/>
-      <c r="D120" s="313"/>
+      <c r="D120" s="325"/>
       <c r="E120" s="147"/>
       <c r="F120" s="137"/>
       <c r="G120" s="137"/>
@@ -9744,7 +10013,7 @@
       <c r="A121" s="122"/>
       <c r="B121" s="271"/>
       <c r="C121" s="118"/>
-      <c r="D121" s="313"/>
+      <c r="D121" s="325"/>
       <c r="E121" s="147"/>
       <c r="F121" s="137"/>
       <c r="G121" s="137"/>
@@ -9775,7 +10044,7 @@
       <c r="A122" s="122"/>
       <c r="B122" s="271"/>
       <c r="C122" s="118"/>
-      <c r="D122" s="313"/>
+      <c r="D122" s="325"/>
       <c r="E122" s="147"/>
       <c r="F122" s="137"/>
       <c r="G122" s="137"/>
@@ -9806,7 +10075,7 @@
       <c r="A123" s="122"/>
       <c r="B123" s="271"/>
       <c r="C123" s="118"/>
-      <c r="D123" s="313"/>
+      <c r="D123" s="325"/>
       <c r="E123" s="147"/>
       <c r="F123" s="137"/>
       <c r="G123" s="137"/>
@@ -9930,7 +10199,7 @@
       <c r="A127" s="122"/>
       <c r="B127" s="271"/>
       <c r="C127" s="150"/>
-      <c r="D127" s="314"/>
+      <c r="D127" s="326"/>
       <c r="E127" s="152"/>
       <c r="F127" s="137"/>
       <c r="G127" s="137"/>
@@ -9961,7 +10230,7 @@
       <c r="A128" s="122"/>
       <c r="B128" s="271"/>
       <c r="C128" s="150"/>
-      <c r="D128" s="314"/>
+      <c r="D128" s="326"/>
       <c r="E128" s="152"/>
       <c r="F128" s="137"/>
       <c r="G128" s="137"/>
@@ -10953,7 +11222,7 @@
       <c r="A160" s="160"/>
       <c r="B160" s="271"/>
       <c r="C160" s="150"/>
-      <c r="D160" s="315"/>
+      <c r="D160" s="327"/>
       <c r="E160" s="147"/>
       <c r="F160" s="137"/>
       <c r="G160" s="137"/>
@@ -10962,7 +11231,7 @@
       <c r="J160" s="137"/>
       <c r="K160" s="137"/>
       <c r="L160" s="128"/>
-      <c r="M160" s="294"/>
+      <c r="M160" s="328"/>
       <c r="N160" s="121"/>
       <c r="O160" s="121"/>
       <c r="P160" s="121"/>
@@ -10984,7 +11253,7 @@
       <c r="A161" s="122"/>
       <c r="B161" s="271"/>
       <c r="C161" s="150"/>
-      <c r="D161" s="315"/>
+      <c r="D161" s="327"/>
       <c r="E161" s="147"/>
       <c r="F161" s="137"/>
       <c r="G161" s="137"/>
@@ -10993,7 +11262,7 @@
       <c r="J161" s="137"/>
       <c r="K161" s="137"/>
       <c r="L161" s="128"/>
-      <c r="M161" s="294"/>
+      <c r="M161" s="328"/>
       <c r="N161" s="121"/>
       <c r="O161" s="121"/>
       <c r="P161" s="121"/>
@@ -11015,7 +11284,7 @@
       <c r="A162" s="122"/>
       <c r="B162" s="271"/>
       <c r="C162" s="150"/>
-      <c r="D162" s="315"/>
+      <c r="D162" s="327"/>
       <c r="E162" s="164"/>
       <c r="F162" s="137"/>
       <c r="G162" s="137"/>
@@ -11024,7 +11293,7 @@
       <c r="J162" s="137"/>
       <c r="K162" s="137"/>
       <c r="L162" s="128"/>
-      <c r="M162" s="294"/>
+      <c r="M162" s="328"/>
       <c r="N162" s="121"/>
       <c r="O162" s="121"/>
       <c r="P162" s="121"/>
@@ -11046,7 +11315,7 @@
       <c r="A163" s="122"/>
       <c r="B163" s="271"/>
       <c r="C163" s="150"/>
-      <c r="D163" s="315"/>
+      <c r="D163" s="327"/>
       <c r="E163" s="165"/>
       <c r="F163" s="137"/>
       <c r="G163" s="137"/>
@@ -11055,7 +11324,7 @@
       <c r="J163" s="137"/>
       <c r="K163" s="137"/>
       <c r="L163" s="128"/>
-      <c r="M163" s="294"/>
+      <c r="M163" s="328"/>
       <c r="N163" s="121"/>
       <c r="O163" s="121"/>
       <c r="P163" s="121"/>
@@ -11077,7 +11346,7 @@
       <c r="A164" s="122"/>
       <c r="B164" s="271"/>
       <c r="C164" s="150"/>
-      <c r="D164" s="315"/>
+      <c r="D164" s="327"/>
       <c r="E164" s="165"/>
       <c r="F164" s="137"/>
       <c r="G164" s="137"/>
@@ -11086,7 +11355,7 @@
       <c r="J164" s="137"/>
       <c r="K164" s="137"/>
       <c r="L164" s="128"/>
-      <c r="M164" s="294"/>
+      <c r="M164" s="328"/>
       <c r="N164" s="121"/>
       <c r="O164" s="121"/>
       <c r="P164" s="121"/>
@@ -11108,7 +11377,7 @@
       <c r="A165" s="122"/>
       <c r="B165" s="271"/>
       <c r="C165" s="150"/>
-      <c r="D165" s="315"/>
+      <c r="D165" s="327"/>
       <c r="E165" s="165"/>
       <c r="F165" s="137"/>
       <c r="G165" s="137"/>
@@ -11117,7 +11386,7 @@
       <c r="J165" s="137"/>
       <c r="K165" s="137"/>
       <c r="L165" s="128"/>
-      <c r="M165" s="294"/>
+      <c r="M165" s="328"/>
       <c r="N165" s="121"/>
       <c r="O165" s="121"/>
       <c r="P165" s="121"/>
@@ -11139,7 +11408,7 @@
       <c r="A166" s="122"/>
       <c r="B166" s="271"/>
       <c r="C166" s="150"/>
-      <c r="D166" s="315"/>
+      <c r="D166" s="327"/>
       <c r="E166" s="165"/>
       <c r="F166" s="137"/>
       <c r="G166" s="137"/>
@@ -11148,7 +11417,7 @@
       <c r="J166" s="137"/>
       <c r="K166" s="137"/>
       <c r="L166" s="128"/>
-      <c r="M166" s="294"/>
+      <c r="M166" s="328"/>
       <c r="N166" s="121"/>
       <c r="O166" s="121"/>
       <c r="P166" s="121"/>
@@ -11170,7 +11439,7 @@
       <c r="A167" s="122"/>
       <c r="B167" s="271"/>
       <c r="C167" s="150"/>
-      <c r="D167" s="315"/>
+      <c r="D167" s="327"/>
       <c r="E167" s="147"/>
       <c r="F167" s="137"/>
       <c r="G167" s="137"/>
@@ -11179,7 +11448,7 @@
       <c r="J167" s="137"/>
       <c r="K167" s="137"/>
       <c r="L167" s="128"/>
-      <c r="M167" s="294"/>
+      <c r="M167" s="328"/>
       <c r="N167" s="121"/>
       <c r="O167" s="121"/>
       <c r="P167" s="121"/>
@@ -11201,7 +11470,7 @@
       <c r="A168" s="122"/>
       <c r="B168" s="271"/>
       <c r="C168" s="150"/>
-      <c r="D168" s="315"/>
+      <c r="D168" s="327"/>
       <c r="E168" s="147"/>
       <c r="F168" s="137"/>
       <c r="G168" s="137"/>
@@ -11232,7 +11501,7 @@
       <c r="A169" s="122"/>
       <c r="B169" s="271"/>
       <c r="C169" s="150"/>
-      <c r="D169" s="315"/>
+      <c r="D169" s="327"/>
       <c r="E169" s="147"/>
       <c r="F169" s="137"/>
       <c r="G169" s="137"/>
@@ -11263,7 +11532,7 @@
       <c r="A170" s="122"/>
       <c r="B170" s="271"/>
       <c r="C170" s="150"/>
-      <c r="D170" s="315"/>
+      <c r="D170" s="327"/>
       <c r="E170" s="147"/>
       <c r="F170" s="137"/>
       <c r="G170" s="137"/>
@@ -11327,7 +11596,7 @@
       <c r="C172" s="171" t="s">
         <v>115</v>
       </c>
-      <c r="D172" s="321"/>
+      <c r="D172" s="318"/>
       <c r="E172" s="147"/>
       <c r="F172" s="137"/>
       <c r="G172" s="159"/>
@@ -11358,7 +11627,7 @@
       <c r="A173" s="169"/>
       <c r="B173" s="168"/>
       <c r="C173" s="173"/>
-      <c r="D173" s="321"/>
+      <c r="D173" s="318"/>
       <c r="E173" s="147"/>
       <c r="F173" s="137"/>
       <c r="G173" s="159"/>
@@ -11389,7 +11658,7 @@
       <c r="A174" s="169"/>
       <c r="B174" s="168"/>
       <c r="C174" s="173"/>
-      <c r="D174" s="321"/>
+      <c r="D174" s="318"/>
       <c r="E174" s="147"/>
       <c r="F174" s="137"/>
       <c r="G174" s="159"/>
@@ -11420,7 +11689,7 @@
       <c r="A175" s="169"/>
       <c r="B175" s="168"/>
       <c r="C175" s="168"/>
-      <c r="D175" s="321"/>
+      <c r="D175" s="318"/>
       <c r="E175" s="155"/>
       <c r="F175" s="137"/>
       <c r="G175" s="159"/>
@@ -11451,7 +11720,7 @@
       <c r="A176" s="169"/>
       <c r="B176" s="172"/>
       <c r="C176" s="168"/>
-      <c r="D176" s="321"/>
+      <c r="D176" s="318"/>
       <c r="E176" s="155"/>
       <c r="F176" s="137"/>
       <c r="G176" s="159"/>
@@ -11482,7 +11751,7 @@
       <c r="A177" s="169"/>
       <c r="B177" s="172"/>
       <c r="C177" s="168"/>
-      <c r="D177" s="321"/>
+      <c r="D177" s="318"/>
       <c r="E177" s="155"/>
       <c r="F177" s="137"/>
       <c r="G177" s="159"/>
@@ -11513,7 +11782,7 @@
       <c r="A178" s="169"/>
       <c r="B178" s="172"/>
       <c r="C178" s="168"/>
-      <c r="D178" s="321"/>
+      <c r="D178" s="318"/>
       <c r="E178" s="147"/>
       <c r="F178" s="137"/>
       <c r="G178" s="159"/>
@@ -11544,7 +11813,7 @@
       <c r="A179" s="169"/>
       <c r="B179" s="172"/>
       <c r="C179" s="168"/>
-      <c r="D179" s="321"/>
+      <c r="D179" s="318"/>
       <c r="E179" s="147"/>
       <c r="F179" s="137"/>
       <c r="G179" s="159"/>
@@ -11575,7 +11844,7 @@
       <c r="A180" s="169"/>
       <c r="B180" s="172"/>
       <c r="C180" s="172"/>
-      <c r="D180" s="321"/>
+      <c r="D180" s="318"/>
       <c r="E180" s="147"/>
       <c r="F180" s="137"/>
       <c r="G180" s="159"/>
@@ -12915,8 +13184,8 @@
       <c r="H223" s="192"/>
       <c r="I223" s="192"/>
       <c r="J223" s="192"/>
-      <c r="K223" s="308"/>
-      <c r="L223" s="309"/>
+      <c r="K223" s="320"/>
+      <c r="L223" s="322"/>
       <c r="M223" s="255"/>
       <c r="N223" s="121"/>
       <c r="O223" s="121"/>
@@ -12946,8 +13215,8 @@
       <c r="H224" s="193"/>
       <c r="I224" s="193"/>
       <c r="J224" s="193"/>
-      <c r="K224" s="308"/>
-      <c r="L224" s="309"/>
+      <c r="K224" s="320"/>
+      <c r="L224" s="322"/>
       <c r="M224" s="255"/>
       <c r="N224" s="121"/>
       <c r="O224" s="121"/>
@@ -12977,8 +13246,8 @@
       <c r="H225" s="120"/>
       <c r="I225" s="120"/>
       <c r="J225" s="120"/>
-      <c r="K225" s="308"/>
-      <c r="L225" s="309"/>
+      <c r="K225" s="320"/>
+      <c r="L225" s="322"/>
       <c r="M225" s="255"/>
       <c r="N225" s="121"/>
       <c r="O225" s="121"/>
@@ -13186,9 +13455,9 @@
     <row r="232" spans="1:29" ht="15.75" customHeight="1">
       <c r="A232" s="169"/>
       <c r="B232" s="180"/>
-      <c r="C232" s="310"/>
+      <c r="C232" s="315"/>
       <c r="D232" s="168"/>
-      <c r="E232" s="311"/>
+      <c r="E232" s="323"/>
       <c r="F232" s="130"/>
       <c r="G232" s="130"/>
       <c r="H232" s="130"/>
@@ -13217,9 +13486,9 @@
     <row r="233" spans="1:29" ht="15.75" customHeight="1">
       <c r="A233" s="169"/>
       <c r="B233" s="180"/>
-      <c r="C233" s="310"/>
+      <c r="C233" s="315"/>
       <c r="D233" s="168"/>
-      <c r="E233" s="311"/>
+      <c r="E233" s="323"/>
       <c r="F233" s="130"/>
       <c r="G233" s="130"/>
       <c r="H233" s="130"/>
@@ -13248,9 +13517,9 @@
     <row r="234" spans="1:29" ht="15.75" customHeight="1">
       <c r="A234" s="169"/>
       <c r="B234" s="180"/>
-      <c r="C234" s="310"/>
+      <c r="C234" s="315"/>
       <c r="D234" s="168"/>
-      <c r="E234" s="311"/>
+      <c r="E234" s="323"/>
       <c r="F234" s="130"/>
       <c r="G234" s="130"/>
       <c r="H234" s="130"/>
@@ -13279,7 +13548,7 @@
     <row r="235" spans="1:29" ht="15.75" customHeight="1">
       <c r="A235" s="169"/>
       <c r="B235" s="180"/>
-      <c r="C235" s="310"/>
+      <c r="C235" s="315"/>
       <c r="D235" s="168"/>
       <c r="E235" s="138"/>
       <c r="F235" s="130"/>
@@ -13310,7 +13579,7 @@
     <row r="236" spans="1:29" ht="15.75" customHeight="1">
       <c r="A236" s="169"/>
       <c r="B236" s="180"/>
-      <c r="C236" s="310"/>
+      <c r="C236" s="315"/>
       <c r="D236" s="168"/>
       <c r="E236" s="138"/>
       <c r="F236" s="130"/>
@@ -13341,7 +13610,7 @@
     <row r="237" spans="1:29" ht="15.75" customHeight="1">
       <c r="A237" s="169"/>
       <c r="B237" s="180"/>
-      <c r="C237" s="310"/>
+      <c r="C237" s="315"/>
       <c r="D237" s="168"/>
       <c r="E237" s="138"/>
       <c r="F237" s="190"/>
@@ -13372,7 +13641,7 @@
     <row r="238" spans="1:29" ht="15.75" customHeight="1">
       <c r="A238" s="169"/>
       <c r="B238" s="180"/>
-      <c r="C238" s="310"/>
+      <c r="C238" s="315"/>
       <c r="D238" s="168"/>
       <c r="E238" s="138"/>
       <c r="F238" s="130"/>
@@ -14000,7 +14269,7 @@
       <c r="H258" s="190"/>
       <c r="I258" s="190"/>
       <c r="J258" s="190"/>
-      <c r="K258" s="317"/>
+      <c r="K258" s="319"/>
       <c r="L258" s="128"/>
       <c r="M258" s="157"/>
       <c r="N258" s="121"/>
@@ -14031,7 +14300,7 @@
       <c r="H259" s="190"/>
       <c r="I259" s="190"/>
       <c r="J259" s="190"/>
-      <c r="K259" s="317"/>
+      <c r="K259" s="319"/>
       <c r="L259" s="128"/>
       <c r="M259" s="157"/>
       <c r="N259" s="121"/>
@@ -14124,7 +14393,7 @@
       <c r="H262" s="190"/>
       <c r="I262" s="190"/>
       <c r="J262" s="190"/>
-      <c r="K262" s="308"/>
+      <c r="K262" s="320"/>
       <c r="L262" s="128"/>
       <c r="M262" s="157"/>
       <c r="N262" s="121"/>
@@ -14155,7 +14424,7 @@
       <c r="H263" s="190"/>
       <c r="I263" s="190"/>
       <c r="J263" s="190"/>
-      <c r="K263" s="308"/>
+      <c r="K263" s="320"/>
       <c r="L263" s="128"/>
       <c r="M263" s="157"/>
       <c r="N263" s="121"/>
@@ -14178,7 +14447,7 @@
     <row r="264" spans="1:29" ht="15.75" customHeight="1">
       <c r="A264" s="169"/>
       <c r="B264" s="180"/>
-      <c r="C264" s="310"/>
+      <c r="C264" s="315"/>
       <c r="D264" s="191"/>
       <c r="E264" s="155"/>
       <c r="F264" s="137"/>
@@ -14209,7 +14478,7 @@
     <row r="265" spans="1:29" ht="15.75" customHeight="1">
       <c r="A265" s="169"/>
       <c r="B265" s="180"/>
-      <c r="C265" s="310"/>
+      <c r="C265" s="315"/>
       <c r="D265" s="153"/>
       <c r="E265" s="155"/>
       <c r="F265" s="137"/>
@@ -14518,10 +14787,10 @@
     </row>
     <row r="275" spans="1:29" ht="15.75" customHeight="1">
       <c r="A275" s="175"/>
-      <c r="B275" s="318"/>
-      <c r="C275" s="310"/>
+      <c r="B275" s="317"/>
+      <c r="C275" s="315"/>
       <c r="D275" s="168"/>
-      <c r="E275" s="310"/>
+      <c r="E275" s="315"/>
       <c r="F275" s="130"/>
       <c r="G275" s="130"/>
       <c r="H275" s="130"/>
@@ -14549,10 +14818,10 @@
     </row>
     <row r="276" spans="1:29" ht="15.75" customHeight="1">
       <c r="A276" s="175"/>
-      <c r="B276" s="318"/>
-      <c r="C276" s="318"/>
+      <c r="B276" s="317"/>
+      <c r="C276" s="317"/>
       <c r="D276" s="168"/>
-      <c r="E276" s="310"/>
+      <c r="E276" s="315"/>
       <c r="F276" s="130"/>
       <c r="G276" s="130"/>
       <c r="H276" s="130"/>
@@ -14580,10 +14849,10 @@
     </row>
     <row r="277" spans="1:29" ht="15.75" customHeight="1">
       <c r="A277" s="175"/>
-      <c r="B277" s="318"/>
-      <c r="C277" s="318"/>
+      <c r="B277" s="317"/>
+      <c r="C277" s="317"/>
       <c r="D277" s="168"/>
-      <c r="E277" s="310"/>
+      <c r="E277" s="315"/>
       <c r="F277" s="130"/>
       <c r="G277" s="130"/>
       <c r="H277" s="130"/>
@@ -14611,10 +14880,10 @@
     </row>
     <row r="278" spans="1:29" ht="15.75" customHeight="1">
       <c r="A278" s="175"/>
-      <c r="B278" s="318"/>
-      <c r="C278" s="318"/>
+      <c r="B278" s="317"/>
+      <c r="C278" s="317"/>
       <c r="D278" s="168"/>
-      <c r="E278" s="310"/>
+      <c r="E278" s="315"/>
       <c r="F278" s="130"/>
       <c r="G278" s="130"/>
       <c r="H278" s="130"/>
@@ -14642,10 +14911,10 @@
     </row>
     <row r="279" spans="1:29" ht="15.75" customHeight="1">
       <c r="A279" s="175"/>
-      <c r="B279" s="318"/>
-      <c r="C279" s="318"/>
+      <c r="B279" s="317"/>
+      <c r="C279" s="317"/>
       <c r="D279" s="168"/>
-      <c r="E279" s="310"/>
+      <c r="E279" s="315"/>
       <c r="F279" s="130"/>
       <c r="G279" s="130"/>
       <c r="H279" s="130"/>
@@ -14673,10 +14942,10 @@
     </row>
     <row r="280" spans="1:29" ht="15.75" customHeight="1">
       <c r="A280" s="175"/>
-      <c r="B280" s="318"/>
-      <c r="C280" s="318"/>
+      <c r="B280" s="317"/>
+      <c r="C280" s="317"/>
       <c r="D280" s="168"/>
-      <c r="E280" s="310"/>
+      <c r="E280" s="315"/>
       <c r="F280" s="190"/>
       <c r="G280" s="190"/>
       <c r="H280" s="190"/>
@@ -14704,10 +14973,10 @@
     </row>
     <row r="281" spans="1:29" ht="15.75" customHeight="1">
       <c r="A281" s="175"/>
-      <c r="B281" s="318"/>
-      <c r="C281" s="318"/>
+      <c r="B281" s="317"/>
+      <c r="C281" s="317"/>
       <c r="D281" s="168"/>
-      <c r="E281" s="310"/>
+      <c r="E281" s="315"/>
       <c r="F281" s="130"/>
       <c r="G281" s="130"/>
       <c r="H281" s="130"/>
@@ -14735,10 +15004,10 @@
     </row>
     <row r="282" spans="1:29" ht="15.75" customHeight="1">
       <c r="A282" s="175"/>
-      <c r="B282" s="318"/>
-      <c r="C282" s="318"/>
+      <c r="B282" s="317"/>
+      <c r="C282" s="317"/>
       <c r="D282" s="168"/>
-      <c r="E282" s="310"/>
+      <c r="E282" s="315"/>
       <c r="F282" s="130"/>
       <c r="G282" s="130"/>
       <c r="H282" s="130"/>
@@ -14766,8 +15035,8 @@
     </row>
     <row r="283" spans="1:29" ht="15.75" customHeight="1">
       <c r="A283" s="175"/>
-      <c r="B283" s="318"/>
-      <c r="C283" s="318"/>
+      <c r="B283" s="317"/>
+      <c r="C283" s="317"/>
       <c r="D283" s="168"/>
       <c r="E283" s="172"/>
       <c r="F283" s="127"/>
@@ -14797,8 +15066,8 @@
     </row>
     <row r="284" spans="1:29" ht="15.75" customHeight="1">
       <c r="A284" s="175"/>
-      <c r="B284" s="318"/>
-      <c r="C284" s="318"/>
+      <c r="B284" s="317"/>
+      <c r="C284" s="317"/>
       <c r="D284" s="168"/>
       <c r="E284" s="172"/>
       <c r="F284" s="128"/>
@@ -14828,10 +15097,10 @@
     </row>
     <row r="285" spans="1:29" ht="15.75" customHeight="1">
       <c r="A285" s="175"/>
-      <c r="B285" s="318"/>
-      <c r="C285" s="318"/>
+      <c r="B285" s="317"/>
+      <c r="C285" s="317"/>
       <c r="D285" s="191"/>
-      <c r="E285" s="310"/>
+      <c r="E285" s="315"/>
       <c r="F285" s="137"/>
       <c r="G285" s="137"/>
       <c r="H285" s="137"/>
@@ -14859,10 +15128,10 @@
     </row>
     <row r="286" spans="1:29" ht="15.75" customHeight="1">
       <c r="A286" s="175"/>
-      <c r="B286" s="318"/>
-      <c r="C286" s="318"/>
+      <c r="B286" s="317"/>
+      <c r="C286" s="317"/>
       <c r="D286" s="211"/>
-      <c r="E286" s="310"/>
+      <c r="E286" s="315"/>
       <c r="F286" s="128"/>
       <c r="G286" s="128"/>
       <c r="H286" s="128"/>
@@ -14890,10 +15159,10 @@
     </row>
     <row r="287" spans="1:29" ht="15.75" customHeight="1">
       <c r="A287" s="175"/>
-      <c r="B287" s="318"/>
-      <c r="C287" s="318"/>
+      <c r="B287" s="317"/>
+      <c r="C287" s="317"/>
       <c r="D287" s="211"/>
-      <c r="E287" s="310"/>
+      <c r="E287" s="315"/>
       <c r="F287" s="128"/>
       <c r="G287" s="128"/>
       <c r="H287" s="128"/>
@@ -14921,10 +15190,10 @@
     </row>
     <row r="288" spans="1:29" ht="15.75" customHeight="1">
       <c r="A288" s="175"/>
-      <c r="B288" s="318"/>
-      <c r="C288" s="310"/>
+      <c r="B288" s="317"/>
+      <c r="C288" s="315"/>
       <c r="D288" s="153"/>
-      <c r="E288" s="310"/>
+      <c r="E288" s="315"/>
       <c r="F288" s="128"/>
       <c r="G288" s="128"/>
       <c r="H288" s="128"/>
@@ -14952,7 +15221,7 @@
     </row>
     <row r="289" spans="1:29" ht="15.75" customHeight="1">
       <c r="A289" s="175"/>
-      <c r="B289" s="318"/>
+      <c r="B289" s="317"/>
       <c r="C289" s="168"/>
       <c r="D289" s="211"/>
       <c r="E289" s="211"/>
@@ -14983,10 +15252,10 @@
     </row>
     <row r="290" spans="1:29" ht="15.75" customHeight="1">
       <c r="A290" s="175"/>
-      <c r="B290" s="318"/>
-      <c r="C290" s="310"/>
+      <c r="B290" s="317"/>
+      <c r="C290" s="315"/>
       <c r="D290" s="191"/>
-      <c r="E290" s="319"/>
+      <c r="E290" s="321"/>
       <c r="F290" s="137"/>
       <c r="G290" s="137"/>
       <c r="H290" s="137"/>
@@ -15014,10 +15283,10 @@
     </row>
     <row r="291" spans="1:29" ht="15.75" customHeight="1">
       <c r="A291" s="175"/>
-      <c r="B291" s="318"/>
-      <c r="C291" s="318"/>
+      <c r="B291" s="317"/>
+      <c r="C291" s="317"/>
       <c r="D291" s="153"/>
-      <c r="E291" s="319"/>
+      <c r="E291" s="321"/>
       <c r="F291" s="137"/>
       <c r="G291" s="137"/>
       <c r="H291" s="137"/>
@@ -15045,10 +15314,10 @@
     </row>
     <row r="292" spans="1:29" ht="15.75" customHeight="1">
       <c r="A292" s="175"/>
-      <c r="B292" s="318"/>
-      <c r="C292" s="318"/>
+      <c r="B292" s="317"/>
+      <c r="C292" s="317"/>
       <c r="D292" s="168"/>
-      <c r="E292" s="319"/>
+      <c r="E292" s="321"/>
       <c r="F292" s="137"/>
       <c r="G292" s="137"/>
       <c r="H292" s="137"/>
@@ -15076,10 +15345,10 @@
     </row>
     <row r="293" spans="1:29" ht="15.75" customHeight="1">
       <c r="A293" s="175"/>
-      <c r="B293" s="318"/>
-      <c r="C293" s="310"/>
+      <c r="B293" s="317"/>
+      <c r="C293" s="315"/>
       <c r="D293" s="168"/>
-      <c r="E293" s="319"/>
+      <c r="E293" s="321"/>
       <c r="F293" s="137"/>
       <c r="G293" s="137"/>
       <c r="H293" s="137"/>
@@ -15107,7 +15376,7 @@
     </row>
     <row r="294" spans="1:29" ht="15.75" customHeight="1">
       <c r="A294" s="175"/>
-      <c r="B294" s="318"/>
+      <c r="B294" s="317"/>
       <c r="C294" s="172"/>
       <c r="D294" s="172"/>
       <c r="E294" s="175"/>
@@ -15138,10 +15407,10 @@
     </row>
     <row r="295" spans="1:29" ht="15.75" customHeight="1">
       <c r="A295" s="175"/>
-      <c r="B295" s="318"/>
-      <c r="C295" s="310"/>
+      <c r="B295" s="317"/>
+      <c r="C295" s="315"/>
       <c r="D295" s="191"/>
-      <c r="E295" s="310"/>
+      <c r="E295" s="315"/>
       <c r="F295" s="137"/>
       <c r="G295" s="137"/>
       <c r="H295" s="137"/>
@@ -15169,10 +15438,10 @@
     </row>
     <row r="296" spans="1:29" ht="15.75" customHeight="1">
       <c r="A296" s="175"/>
-      <c r="B296" s="318"/>
-      <c r="C296" s="318"/>
+      <c r="B296" s="317"/>
+      <c r="C296" s="317"/>
       <c r="D296" s="211"/>
-      <c r="E296" s="310"/>
+      <c r="E296" s="315"/>
       <c r="F296" s="137"/>
       <c r="G296" s="137"/>
       <c r="H296" s="137"/>
@@ -15200,10 +15469,10 @@
     </row>
     <row r="297" spans="1:29" ht="15.75" customHeight="1">
       <c r="A297" s="175"/>
-      <c r="B297" s="318"/>
-      <c r="C297" s="318"/>
+      <c r="B297" s="317"/>
+      <c r="C297" s="317"/>
       <c r="D297" s="211"/>
-      <c r="E297" s="310"/>
+      <c r="E297" s="315"/>
       <c r="F297" s="137"/>
       <c r="G297" s="137"/>
       <c r="H297" s="137"/>
@@ -15231,10 +15500,10 @@
     </row>
     <row r="298" spans="1:29" ht="15.75" customHeight="1">
       <c r="A298" s="175"/>
-      <c r="B298" s="318"/>
-      <c r="C298" s="318"/>
+      <c r="B298" s="317"/>
+      <c r="C298" s="317"/>
       <c r="D298" s="211"/>
-      <c r="E298" s="310"/>
+      <c r="E298" s="315"/>
       <c r="F298" s="137"/>
       <c r="G298" s="137"/>
       <c r="H298" s="137"/>
@@ -15262,10 +15531,10 @@
     </row>
     <row r="299" spans="1:29" ht="15.75" customHeight="1">
       <c r="A299" s="175"/>
-      <c r="B299" s="318"/>
-      <c r="C299" s="318"/>
+      <c r="B299" s="317"/>
+      <c r="C299" s="317"/>
       <c r="D299" s="211"/>
-      <c r="E299" s="310"/>
+      <c r="E299" s="315"/>
       <c r="F299" s="130"/>
       <c r="G299" s="130"/>
       <c r="H299" s="130"/>
@@ -15293,10 +15562,10 @@
     </row>
     <row r="300" spans="1:29" ht="15.75" customHeight="1">
       <c r="A300" s="175"/>
-      <c r="B300" s="318"/>
-      <c r="C300" s="318"/>
+      <c r="B300" s="317"/>
+      <c r="C300" s="317"/>
       <c r="D300" s="153"/>
-      <c r="E300" s="310"/>
+      <c r="E300" s="315"/>
       <c r="F300" s="130"/>
       <c r="G300" s="130"/>
       <c r="H300" s="130"/>
@@ -15324,10 +15593,10 @@
     </row>
     <row r="301" spans="1:29" ht="15.75" customHeight="1">
       <c r="A301" s="175"/>
-      <c r="B301" s="318"/>
-      <c r="C301" s="318"/>
+      <c r="B301" s="317"/>
+      <c r="C301" s="317"/>
       <c r="D301" s="191"/>
-      <c r="E301" s="310"/>
+      <c r="E301" s="315"/>
       <c r="F301" s="137"/>
       <c r="G301" s="137"/>
       <c r="H301" s="137"/>
@@ -15355,10 +15624,10 @@
     </row>
     <row r="302" spans="1:29" ht="15.75" customHeight="1">
       <c r="A302" s="175"/>
-      <c r="B302" s="318"/>
-      <c r="C302" s="318"/>
+      <c r="B302" s="317"/>
+      <c r="C302" s="317"/>
       <c r="D302" s="211"/>
-      <c r="E302" s="310"/>
+      <c r="E302" s="315"/>
       <c r="F302" s="128"/>
       <c r="G302" s="128"/>
       <c r="H302" s="128"/>
@@ -15386,10 +15655,10 @@
     </row>
     <row r="303" spans="1:29" ht="15.75" customHeight="1">
       <c r="A303" s="175"/>
-      <c r="B303" s="318"/>
-      <c r="C303" s="318"/>
+      <c r="B303" s="317"/>
+      <c r="C303" s="317"/>
       <c r="D303" s="211"/>
-      <c r="E303" s="310"/>
+      <c r="E303" s="315"/>
       <c r="F303" s="128"/>
       <c r="G303" s="128"/>
       <c r="H303" s="128"/>
@@ -15417,10 +15686,10 @@
     </row>
     <row r="304" spans="1:29" ht="15.75" customHeight="1">
       <c r="A304" s="175"/>
-      <c r="B304" s="318"/>
-      <c r="C304" s="318"/>
+      <c r="B304" s="317"/>
+      <c r="C304" s="317"/>
       <c r="D304" s="153"/>
-      <c r="E304" s="310"/>
+      <c r="E304" s="315"/>
       <c r="F304" s="128"/>
       <c r="G304" s="128"/>
       <c r="H304" s="128"/>
@@ -17314,7 +17583,7 @@
       <c r="E365" s="216"/>
       <c r="F365" s="216"/>
       <c r="G365" s="216"/>
-      <c r="H365" s="339"/>
+      <c r="H365" s="290"/>
       <c r="I365" s="216"/>
       <c r="J365" s="216"/>
       <c r="K365" s="216"/>
@@ -17345,7 +17614,7 @@
       <c r="E366" s="216"/>
       <c r="F366" s="216"/>
       <c r="G366" s="216"/>
-      <c r="H366" s="339"/>
+      <c r="H366" s="290"/>
       <c r="I366" s="216"/>
       <c r="J366" s="216"/>
       <c r="K366" s="216"/>
@@ -17376,7 +17645,7 @@
       <c r="E367" s="216"/>
       <c r="F367" s="216"/>
       <c r="G367" s="216"/>
-      <c r="H367" s="339"/>
+      <c r="H367" s="290"/>
       <c r="I367" s="216"/>
       <c r="J367" s="216"/>
       <c r="K367" s="216"/>
@@ -17407,7 +17676,7 @@
       <c r="E368" s="216"/>
       <c r="F368" s="216"/>
       <c r="G368" s="216"/>
-      <c r="H368" s="339"/>
+      <c r="H368" s="290"/>
       <c r="I368" s="216"/>
       <c r="J368" s="216"/>
       <c r="K368" s="216"/>
@@ -17438,7 +17707,7 @@
       <c r="E369" s="216"/>
       <c r="F369" s="216"/>
       <c r="G369" s="216"/>
-      <c r="H369" s="339"/>
+      <c r="H369" s="290"/>
       <c r="I369" s="216"/>
       <c r="J369" s="216"/>
       <c r="K369" s="216"/>
@@ -17469,7 +17738,7 @@
       <c r="E370" s="216"/>
       <c r="F370" s="216"/>
       <c r="G370" s="216"/>
-      <c r="H370" s="339"/>
+      <c r="H370" s="290"/>
       <c r="I370" s="216"/>
       <c r="J370" s="216"/>
       <c r="K370" s="216"/>
@@ -17500,7 +17769,7 @@
       <c r="E371" s="216"/>
       <c r="F371" s="216"/>
       <c r="G371" s="216"/>
-      <c r="H371" s="339"/>
+      <c r="H371" s="290"/>
       <c r="I371" s="216"/>
       <c r="J371" s="216"/>
       <c r="K371" s="216"/>
@@ -17531,7 +17800,7 @@
       <c r="E372" s="216"/>
       <c r="F372" s="216"/>
       <c r="G372" s="216"/>
-      <c r="H372" s="339"/>
+      <c r="H372" s="290"/>
       <c r="I372" s="216"/>
       <c r="J372" s="216"/>
       <c r="K372" s="216"/>
@@ -17556,33 +17825,11 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D10:D46"/>
-    <mergeCell ref="C264:C265"/>
-    <mergeCell ref="C267:C269"/>
-    <mergeCell ref="B275:B304"/>
-    <mergeCell ref="C275:C288"/>
-    <mergeCell ref="C295:C304"/>
-    <mergeCell ref="D172:D180"/>
-    <mergeCell ref="E295:E300"/>
-    <mergeCell ref="E301:E304"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="K258:K259"/>
-    <mergeCell ref="C262:C263"/>
-    <mergeCell ref="K262:K263"/>
-    <mergeCell ref="E275:E282"/>
-    <mergeCell ref="E285:E288"/>
-    <mergeCell ref="C290:C293"/>
-    <mergeCell ref="E290:E291"/>
-    <mergeCell ref="E292:E293"/>
-    <mergeCell ref="K223:K225"/>
-    <mergeCell ref="L223:L225"/>
-    <mergeCell ref="C232:C238"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="D115:D123"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="D160:D170"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="M160:M167"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
@@ -17599,121 +17846,87 @@
     <mergeCell ref="D93:D102"/>
     <mergeCell ref="D104:D105"/>
     <mergeCell ref="B10:B64"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="K223:K225"/>
+    <mergeCell ref="L223:L225"/>
+    <mergeCell ref="C232:C238"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="D107:D113"/>
+    <mergeCell ref="D115:D123"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="D160:D170"/>
+    <mergeCell ref="E295:E300"/>
+    <mergeCell ref="E301:E304"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C242:C246"/>
+    <mergeCell ref="K258:K259"/>
+    <mergeCell ref="C262:C263"/>
+    <mergeCell ref="K262:K263"/>
+    <mergeCell ref="E275:E282"/>
+    <mergeCell ref="E285:E288"/>
+    <mergeCell ref="C290:C293"/>
+    <mergeCell ref="E290:E291"/>
+    <mergeCell ref="E292:E293"/>
+    <mergeCell ref="D10:D46"/>
+    <mergeCell ref="C264:C265"/>
+    <mergeCell ref="C267:C269"/>
+    <mergeCell ref="B275:B304"/>
+    <mergeCell ref="C275:C288"/>
+    <mergeCell ref="C295:C304"/>
+    <mergeCell ref="D172:D180"/>
   </mergeCells>
   <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="35" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="36" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="37" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L46">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L60:L79 L81:L91 L93:L96 L98:L102 L104:L105 L107:L113 L115:L372 K206:K211 K213:K214 K251 K265:K274">
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+  <conditionalFormatting sqref="L48:L79">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
-    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
+  <conditionalFormatting sqref="L81:L91 L93:L96 L98:L102 L104:L105 L107:L113 L115:L372 K206:K211 K213:K214 K251 K265:K274">
+    <cfRule type="cellIs" dxfId="3" priority="26" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
-      <formula>"Out of Scope"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
-      <formula>"Out of Scope"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L50">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"Out of Scope"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"Out of Scope"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L52:L59">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Passed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Not Executed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>"Out of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17735,11 +17948,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -17754,100 +17967,100 @@
   <sheetData>
     <row r="2" spans="4:13" ht="14.4" thickBot="1"/>
     <row r="3" spans="4:13" ht="13.5" customHeight="1" thickBot="1">
-      <c r="D3" s="322" t="s">
+      <c r="D3" s="342" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="322"/>
-      <c r="H3" s="322" t="s">
+      <c r="E3" s="342"/>
+      <c r="H3" s="342" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="322"/>
-      <c r="L3" s="322" t="s">
+      <c r="I3" s="342"/>
+      <c r="L3" s="342" t="s">
         <v>116</v>
       </c>
-      <c r="M3" s="322"/>
+      <c r="M3" s="342"/>
     </row>
     <row r="4" spans="4:13" ht="14.4" thickBot="1">
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="L4" s="322"/>
-      <c r="M4" s="322"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="L4" s="342"/>
+      <c r="M4" s="342"/>
     </row>
     <row r="5" spans="4:13" ht="14.4" thickBot="1">
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
     </row>
     <row r="6" spans="4:13" ht="14.4" thickBot="1">
-      <c r="D6" s="322"/>
-      <c r="E6" s="322"/>
-      <c r="H6" s="322"/>
-      <c r="I6" s="322"/>
-      <c r="L6" s="322"/>
-      <c r="M6" s="322"/>
+      <c r="D6" s="342"/>
+      <c r="E6" s="342"/>
+      <c r="H6" s="342"/>
+      <c r="I6" s="342"/>
+      <c r="L6" s="342"/>
+      <c r="M6" s="342"/>
     </row>
     <row r="7" spans="4:13" ht="15" customHeight="1">
-      <c r="D7" s="323" t="s">
+      <c r="D7" s="343" t="s">
         <v>284</v>
       </c>
-      <c r="E7" s="323"/>
-      <c r="H7" s="323" t="s">
+      <c r="E7" s="343"/>
+      <c r="H7" s="343" t="s">
         <v>287</v>
       </c>
-      <c r="I7" s="323"/>
-      <c r="L7" s="323" t="s">
+      <c r="I7" s="343"/>
+      <c r="L7" s="343" t="s">
         <v>291</v>
       </c>
-      <c r="M7" s="323"/>
+      <c r="M7" s="343"/>
     </row>
     <row r="8" spans="4:13" ht="18.75" customHeight="1">
-      <c r="D8" s="323"/>
-      <c r="E8" s="323"/>
-      <c r="H8" s="323"/>
-      <c r="I8" s="323"/>
-      <c r="L8" s="323"/>
-      <c r="M8" s="323"/>
+      <c r="D8" s="343"/>
+      <c r="E8" s="343"/>
+      <c r="H8" s="343"/>
+      <c r="I8" s="343"/>
+      <c r="L8" s="343"/>
+      <c r="M8" s="343"/>
     </row>
     <row r="9" spans="4:13" ht="13.5" customHeight="1">
-      <c r="D9" s="324" t="s">
+      <c r="D9" s="345" t="s">
         <v>285</v>
       </c>
-      <c r="E9" s="324"/>
-      <c r="H9" s="324" t="s">
+      <c r="E9" s="345"/>
+      <c r="H9" s="345" t="s">
         <v>289</v>
       </c>
-      <c r="I9" s="324"/>
-      <c r="L9" s="345" t="s">
+      <c r="I9" s="345"/>
+      <c r="L9" s="344" t="s">
         <v>290</v>
       </c>
-      <c r="M9" s="324"/>
+      <c r="M9" s="345"/>
     </row>
     <row r="10" spans="4:13" ht="21" customHeight="1">
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="324"/>
-      <c r="L10" s="324"/>
-      <c r="M10" s="324"/>
+      <c r="D10" s="345"/>
+      <c r="E10" s="345"/>
+      <c r="H10" s="345"/>
+      <c r="I10" s="345"/>
+      <c r="L10" s="345"/>
+      <c r="M10" s="345"/>
     </row>
     <row r="11" spans="4:13" ht="21" customHeight="1">
-      <c r="D11" s="325" t="s">
+      <c r="D11" s="346" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="325"/>
-      <c r="H11" s="325" t="s">
+      <c r="E11" s="346"/>
+      <c r="H11" s="346" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="325"/>
-      <c r="L11" s="325" t="s">
+      <c r="I11" s="346"/>
+      <c r="L11" s="346" t="s">
         <v>117</v>
       </c>
-      <c r="M11" s="325"/>
+      <c r="M11" s="346"/>
     </row>
     <row r="12" spans="4:13" ht="80.25" customHeight="1">
       <c r="D12" s="217" t="s">
@@ -17906,15 +18119,15 @@
       <c r="M15" s="218"/>
     </row>
     <row r="16" spans="4:13" ht="27" customHeight="1">
-      <c r="D16" s="344" t="s">
+      <c r="D16" s="294" t="s">
         <v>283</v>
       </c>
       <c r="E16" s="218"/>
-      <c r="H16" s="344" t="s">
+      <c r="H16" s="294" t="s">
         <v>288</v>
       </c>
       <c r="I16" s="218"/>
-      <c r="L16" s="344" t="s">
+      <c r="L16" s="294" t="s">
         <v>292</v>
       </c>
       <c r="M16" s="218"/>
@@ -17958,44 +18171,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B3:H49"/>
+  <dimension ref="B3:I49"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="59.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" style="223" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1">
-      <c r="B3" s="326" t="s">
+    <row r="3" spans="2:9" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B3" s="347" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
       <c r="F3" s="224"/>
       <c r="G3" s="224"/>
       <c r="H3" s="224"/>
     </row>
-    <row r="4" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B4" s="326"/>
-      <c r="C4" s="326"/>
-      <c r="D4" s="326"/>
-      <c r="E4" s="326"/>
+    <row r="4" spans="2:9" ht="45.75" customHeight="1" thickBot="1">
+      <c r="B4" s="347"/>
+      <c r="C4" s="347"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
       <c r="F4" s="224"/>
       <c r="G4" s="224"/>
-      <c r="H4" s="224"/>
-    </row>
-    <row r="5" spans="2:8" ht="44.25" customHeight="1">
+      <c r="H4" s="341" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="341"/>
+    </row>
+    <row r="5" spans="2:9" ht="44.25" customHeight="1" thickBot="1">
       <c r="B5" s="225" t="s">
         <v>64</v>
       </c>
@@ -18008,158 +18226,190 @@
       <c r="E5" s="226" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" s="227" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B6" s="346">
+      <c r="H5" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" s="227" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B6" s="295">
         <v>1</v>
       </c>
-      <c r="C6" s="347" t="s">
+      <c r="C6" s="296" t="s">
         <v>122</v>
       </c>
       <c r="D6" s="82" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="346" t="s">
+      <c r="E6" s="295" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" s="227" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B7" s="346">
+      <c r="H6" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="227" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B7" s="295">
         <v>2</v>
       </c>
-      <c r="C7" s="348" t="s">
+      <c r="C7" s="297" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="349" t="s">
+      <c r="D7" s="298" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="346" t="s">
+      <c r="E7" s="295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" s="228" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B8" s="346">
+      <c r="H7" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="228" customFormat="1" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B8" s="295">
         <v>3</v>
       </c>
-      <c r="C8" s="348" t="s">
+      <c r="C8" s="297" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="349" t="s">
+      <c r="D8" s="298" t="s">
         <v>127</v>
       </c>
-      <c r="E8" s="346" t="s">
+      <c r="E8" s="295" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" s="228" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B9" s="346">
+      <c r="H8" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="238">
+        <f>COUNTIF(H10:H489, "Out of Scope")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="228" customFormat="1" ht="29.25" customHeight="1" thickBot="1">
+      <c r="B9" s="295">
         <v>4</v>
       </c>
-      <c r="C9" s="348" t="s">
+      <c r="C9" s="297" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="349" t="s">
+      <c r="D9" s="298" t="s">
         <v>129</v>
       </c>
-      <c r="E9" s="346" t="s">
+      <c r="E9" s="295" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" s="228" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B10" s="346">
+      <c r="H9" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="239">
+        <f>SUM(I5:I8)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="228" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B10" s="295">
         <v>5</v>
       </c>
-      <c r="C10" s="348" t="s">
+      <c r="C10" s="297" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="349" t="s">
+      <c r="D10" s="298" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="346" t="s">
+      <c r="E10" s="295" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="228" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B11" s="346">
+    <row r="11" spans="2:9" s="228" customFormat="1" ht="27.75" customHeight="1">
+      <c r="B11" s="295">
         <v>6</v>
       </c>
-      <c r="C11" s="348" t="s">
+      <c r="C11" s="297" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="349" t="s">
+      <c r="D11" s="298" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="346" t="s">
+      <c r="E11" s="295" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="228" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B12" s="346">
+    <row r="12" spans="2:9" s="228" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B12" s="295">
         <v>7</v>
       </c>
-      <c r="C12" s="348" t="s">
+      <c r="C12" s="297" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="349" t="s">
+      <c r="D12" s="298" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="346" t="s">
+      <c r="E12" s="295" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="228" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B13" s="346">
+    <row r="13" spans="2:9" s="228" customFormat="1" ht="29.25" customHeight="1">
+      <c r="B13" s="295">
         <v>8</v>
       </c>
-      <c r="C13" s="348" t="s">
+      <c r="C13" s="297" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="349" t="s">
+      <c r="D13" s="298" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="346" t="s">
+      <c r="E13" s="295" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="2:8" s="228" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B14" s="346">
+    <row r="14" spans="2:9" s="228" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B14" s="295">
         <v>9</v>
       </c>
-      <c r="C14" s="348" t="s">
+      <c r="C14" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="349" t="s">
+      <c r="D14" s="298" t="s">
         <v>139</v>
       </c>
-      <c r="E14" s="346" t="s">
+      <c r="E14" s="295" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:8" s="228" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B15" s="346">
+    <row r="15" spans="2:9" s="228" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B15" s="295">
         <v>10</v>
       </c>
-      <c r="C15" s="348" t="s">
+      <c r="C15" s="297" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="349" t="s">
+      <c r="D15" s="298" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="346" t="s">
+      <c r="E15" s="295" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="228" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B16" s="346">
+    <row r="16" spans="2:9" s="228" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B16" s="295">
         <v>11</v>
       </c>
-      <c r="C16" s="348" t="s">
+      <c r="C16" s="297" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="349" t="s">
+      <c r="D16" s="298" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="346" t="s">
+      <c r="E16" s="295" t="s">
         <v>89</v>
       </c>
     </row>
@@ -18263,8 +18513,9 @@
       <c r="B49" s="229"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:E4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
